--- a/datasets/sgt_files/InVitroBioFilm_SGT_scaling.xlsx
+++ b/datasets/sgt_files/InVitroBioFilm_SGT_scaling.xlsx
@@ -7,12 +7,12 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Nodes-Number of edg." sheetId="1" r:id="rId1"/>
-    <sheet name="Nodes-Number of edg. (Fit Data)" sheetId="2" r:id="rId2"/>
+    <sheet name="Nodes-Number of edge." sheetId="1" r:id="rId1"/>
+    <sheet name="Nodes-Number of edge. (Fitting)" sheetId="2" r:id="rId2"/>
     <sheet name="Nodes-Average degree" sheetId="3" r:id="rId3"/>
-    <sheet name="Nodes-Average degree (Fit Data)" sheetId="4" r:id="rId4"/>
+    <sheet name="Nodes-Average degree (Fitting)" sheetId="4" r:id="rId4"/>
     <sheet name="Nodes-Graph density" sheetId="5" r:id="rId5"/>
-    <sheet name="Nodes-Graph density (Fit Data)" sheetId="6" r:id="rId6"/>
+    <sheet name="Nodes-Graph density (Fitting)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>

--- a/datasets/sgt_files/InVitroBioFilm_SGT_scaling.xlsx
+++ b/datasets/sgt_files/InVitroBioFilm_SGT_scaling.xlsx
@@ -434,232 +434,232 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11.1</v>
+        <v>11.9</v>
       </c>
       <c r="B2">
-        <v>1.772944819596294</v>
+        <v>1.345362404707371</v>
       </c>
       <c r="C2">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="D2">
-        <v>1.343709624716425</v>
+        <v>1.284090685617215</v>
       </c>
       <c r="E2">
-        <v>1.045322978786657</v>
+        <v>1.075546961392531</v>
       </c>
       <c r="F2">
-        <v>0.8750612633917001</v>
+        <v>0.9344984512435677</v>
       </c>
       <c r="G2">
-        <v>0.8660575982375263</v>
+        <v>0.9402403879769228</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>38.8</v>
+        <v>37.7</v>
       </c>
       <c r="B3">
-        <v>3.883869776967869</v>
+        <v>1.633333333333333</v>
       </c>
       <c r="C3">
-        <v>27.7</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>3.645545226711637</v>
+        <v>2.144761058952722</v>
       </c>
       <c r="E3">
-        <v>1.588831725594207</v>
+        <v>1.576341350205793</v>
       </c>
       <c r="F3">
-        <v>1.442479769064449</v>
+        <v>1.462397997898956</v>
       </c>
       <c r="G3">
-        <v>1.451208846386179</v>
+        <v>1.46664151410671</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>85.5</v>
+        <v>78.8</v>
       </c>
       <c r="B4">
-        <v>5.335936864527373</v>
+        <v>2.731706833139716</v>
       </c>
       <c r="C4">
-        <v>64.2</v>
+        <v>61.3</v>
       </c>
       <c r="D4">
-        <v>7.10054770970365</v>
+        <v>5.901129835322498</v>
       </c>
       <c r="E4">
-        <v>1.931966114728173</v>
+        <v>1.896526217489555</v>
       </c>
       <c r="F4">
-        <v>1.807535028068853</v>
+        <v>1.787460474518415</v>
       </c>
       <c r="G4">
-        <v>1.820633473430058</v>
+        <v>1.803198149869531</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>141.7</v>
+        <v>125.4</v>
       </c>
       <c r="B5">
-        <v>5.711683931498078</v>
+        <v>1.528979325490629</v>
       </c>
       <c r="C5">
-        <v>112.7</v>
+        <v>111.1</v>
       </c>
       <c r="D5">
-        <v>8.095334733316742</v>
+        <v>4.269920634183054</v>
       </c>
       <c r="E5">
-        <v>2.15136985024746</v>
+        <v>2.098297536494698</v>
       </c>
       <c r="F5">
-        <v>2.051923916046106</v>
+        <v>2.045714058940868</v>
       </c>
       <c r="G5">
-        <v>2.056847463437927</v>
+        <v>2.015286487753453</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>213.9</v>
+        <v>204.4</v>
       </c>
       <c r="B6">
-        <v>6.730444925031992</v>
+        <v>4.13440846232364</v>
       </c>
       <c r="C6">
-        <v>174.9</v>
+        <v>183.2</v>
       </c>
       <c r="D6">
-        <v>10.26152468636551</v>
+        <v>5.801915392542554</v>
       </c>
       <c r="E6">
-        <v>2.330210784571528</v>
+        <v>2.310480891462675</v>
       </c>
       <c r="F6">
-        <v>2.242789809478677</v>
+        <v>2.262925469331832</v>
       </c>
       <c r="G6">
-        <v>2.249390815416132</v>
+        <v>2.238319252289456</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>311.8</v>
+        <v>290.6</v>
       </c>
       <c r="B7">
-        <v>6.915039969355041</v>
+        <v>4.487513540679045</v>
       </c>
       <c r="C7">
-        <v>266</v>
+        <v>230.3</v>
       </c>
       <c r="D7">
-        <v>13.14534138012399</v>
+        <v>7.449161026585477</v>
       </c>
       <c r="E7">
-        <v>2.493876110852823</v>
+        <v>2.463295609962003</v>
       </c>
       <c r="F7">
-        <v>2.424881636631067</v>
+        <v>2.362293937964231</v>
       </c>
       <c r="G7">
-        <v>2.425595836061488</v>
+        <v>2.398947729173705</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>396.9</v>
+        <v>389.3</v>
       </c>
       <c r="B8">
-        <v>7.271634387582111</v>
+        <v>4.887739763939974</v>
       </c>
       <c r="C8">
-        <v>338.9</v>
+        <v>330.3</v>
       </c>
       <c r="D8">
-        <v>13.1685230758806</v>
+        <v>12.88672874618604</v>
       </c>
       <c r="E8">
-        <v>2.598681098907163</v>
+        <v>2.590284403718162</v>
       </c>
       <c r="F8">
-        <v>2.530071568837378</v>
+        <v>2.518908573691414</v>
       </c>
       <c r="G8">
-        <v>2.538430762697761</v>
+        <v>2.532429744013196</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>510.2</v>
+        <v>518.1</v>
       </c>
       <c r="B9">
-        <v>7.631513611335565</v>
+        <v>6.563281699475246</v>
       </c>
       <c r="C9">
-        <v>439</v>
+        <v>420.3</v>
       </c>
       <c r="D9">
-        <v>14.10358504463</v>
+        <v>11.81246987062589</v>
       </c>
       <c r="E9">
-        <v>2.707740454273771</v>
+        <v>2.714413592287121</v>
       </c>
       <c r="F9">
-        <v>2.642464520242121</v>
+        <v>2.623559390005437</v>
       </c>
       <c r="G9">
-        <v>2.655846017355391</v>
+        <v>2.662905935655674</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>663.7</v>
+        <v>658.6</v>
       </c>
       <c r="B10">
-        <v>11.09959959237769</v>
+        <v>9.318082778483278</v>
       </c>
       <c r="C10">
-        <v>562.8</v>
+        <v>562.6</v>
       </c>
       <c r="D10">
-        <v>14.17415488368413</v>
+        <v>12.02331069215131</v>
       </c>
       <c r="E10">
-        <v>2.821971817642043</v>
+        <v>2.818621726375889</v>
       </c>
       <c r="F10">
-        <v>2.750354088762708</v>
+        <v>2.750199727829182</v>
       </c>
       <c r="G10">
-        <v>2.778829548430623</v>
+        <v>2.772442464741398</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>818.1</v>
+        <v>817</v>
       </c>
       <c r="B11">
-        <v>10.85403150907532</v>
+        <v>8.299933065325822</v>
       </c>
       <c r="C11">
-        <v>698.3</v>
+        <v>701.1</v>
       </c>
       <c r="D11">
-        <v>11.89775889260942</v>
+        <v>11.38463877336475</v>
       </c>
       <c r="E11">
-        <v>2.912806392661292</v>
+        <v>2.912222056532416</v>
       </c>
       <c r="F11">
-        <v>2.844042042041016</v>
+        <v>2.84577996711189</v>
       </c>
       <c r="G11">
-        <v>2.876623678257914</v>
+        <v>2.87082878915145</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -682,7 +682,7 @@
         <v>2.750508394851346</v>
       </c>
       <c r="G12">
-        <v>2.64264799770443</v>
+        <v>2.643005988655647</v>
       </c>
     </row>
   </sheetData>
@@ -708,802 +708,802 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>11.1</v>
+        <v>11.9</v>
       </c>
       <c r="B2">
-        <v>10.76545571751888</v>
+        <v>11.53329490015203</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>19.25151515151515</v>
+        <v>20.03232323232323</v>
       </c>
       <c r="B3">
-        <v>18.4403122519291</v>
+        <v>19.17535974889559</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>27.40303030303031</v>
+        <v>28.16464646464647</v>
       </c>
       <c r="B4">
-        <v>26.03968091243701</v>
+        <v>26.74160821203446</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>35.55454545454545</v>
+        <v>36.2969696969697</v>
       </c>
       <c r="B5">
-        <v>33.58733281016392</v>
+        <v>34.25517998973264</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>43.70606060606061</v>
+        <v>44.42929292929293</v>
       </c>
       <c r="B6">
-        <v>41.09561509895018</v>
+        <v>41.72836626881682</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>51.85757575757577</v>
+        <v>52.56161616161616</v>
       </c>
       <c r="B7">
-        <v>48.57211995509687</v>
+        <v>49.16881501243679</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>60.00909090909092</v>
+        <v>60.6939393939394</v>
       </c>
       <c r="B8">
-        <v>56.0219930201923</v>
+        <v>56.58174841161382</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>68.16060606060606</v>
+        <v>68.82626262626263</v>
       </c>
       <c r="B9">
-        <v>63.44895280439821</v>
+        <v>63.97095969599865</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>76.31212121212121</v>
+        <v>76.95858585858586</v>
       </c>
       <c r="B10">
-        <v>70.85581210579846</v>
+        <v>71.33932896396621</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>84.46363636363637</v>
+        <v>85.09090909090909</v>
       </c>
       <c r="B11">
-        <v>78.24477280786458</v>
+        <v>78.68911724290442</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>92.61515151515152</v>
+        <v>93.22323232323232</v>
       </c>
       <c r="B12">
-        <v>85.6176052151489</v>
+        <v>86.02214649100083</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>100.7666666666667</v>
+        <v>101.3555555555556</v>
       </c>
       <c r="B13">
-        <v>92.9757634475374</v>
+        <v>93.33991598258662</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>108.9181818181818</v>
+        <v>109.4878787878788</v>
       </c>
       <c r="B14">
-        <v>100.3204630692587</v>
+        <v>100.6436809089506</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>117.069696969697</v>
+        <v>117.620202020202</v>
       </c>
       <c r="B15">
-        <v>107.6527352367898</v>
+        <v>107.93450737939</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>125.2212121212121</v>
+        <v>125.7525252525253</v>
       </c>
       <c r="B16">
-        <v>114.9734656202391</v>
+        <v>115.2133120614473</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>133.3727272727273</v>
+        <v>133.8848484848485</v>
       </c>
       <c r="B17">
-        <v>122.2834230985483</v>
+        <v>122.4808914723075</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>141.5242424242424</v>
+        <v>142.0171717171717</v>
       </c>
       <c r="B18">
-        <v>129.583281379522</v>
+        <v>129.737944090963</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>149.6757575757576</v>
+        <v>150.149494949495</v>
       </c>
       <c r="B19">
-        <v>136.8736355981539</v>
+        <v>136.9850873630349</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>157.8272727272727</v>
+        <v>158.2818181818182</v>
       </c>
       <c r="B20">
-        <v>144.1550152707778</v>
+        <v>144.2228709918053</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>165.9787878787879</v>
+        <v>166.4141414141414</v>
       </c>
       <c r="B21">
-        <v>151.4278945527363</v>
+        <v>151.4517874763915</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>174.1303030303031</v>
+        <v>174.5464646464646</v>
       </c>
       <c r="B22">
-        <v>158.6927004661735</v>
+        <v>158.6722805743542</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>182.2818181818182</v>
+        <v>182.6787878787879</v>
       </c>
       <c r="B23">
-        <v>165.9498195761547</v>
+        <v>165.8847521754888</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>190.4333333333333</v>
+        <v>190.8111111111111</v>
       </c>
       <c r="B24">
-        <v>173.1996034642427</v>
+        <v>173.0895679427375</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>198.5848484848485</v>
+        <v>198.9434343434343</v>
       </c>
       <c r="B25">
-        <v>180.4423732584716</v>
+        <v>180.2870619846039</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>206.7363636363636</v>
+        <v>207.0757575757576</v>
       </c>
       <c r="B26">
-        <v>187.6784234145374</v>
+        <v>187.4775407582362</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>214.8878787878788</v>
+        <v>215.2080808080808</v>
       </c>
       <c r="B27">
-        <v>194.9080248966808</v>
+        <v>194.6612863551547</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>223.039393939394</v>
+        <v>223.3404040404041</v>
       </c>
       <c r="B28">
-        <v>202.1314278727698</v>
+        <v>201.8385592869551</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>231.1909090909091</v>
+        <v>231.4727272727273</v>
       </c>
       <c r="B29">
-        <v>209.3488640128526</v>
+        <v>209.0096008625501</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>239.3424242424242</v>
+        <v>239.6050505050505</v>
       </c>
       <c r="B30">
-        <v>216.5605484614675</v>
+        <v>216.1746352291121</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>247.4939393939394</v>
+        <v>247.7373737373737</v>
       </c>
       <c r="B31">
-        <v>223.7666815395695</v>
+        <v>223.3338711341068</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>255.6454545454546</v>
+        <v>255.869696969697</v>
       </c>
       <c r="B32">
-        <v>230.9674502208344</v>
+        <v>230.4875034544522</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>263.7969696969697</v>
+        <v>264.0020202020202</v>
       </c>
       <c r="B33">
-        <v>238.1630294185033</v>
+        <v>237.6357145300106</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>271.9484848484849</v>
+        <v>272.1343434343434</v>
       </c>
       <c r="B34">
-        <v>245.3535831121912</v>
+        <v>244.7786753317172</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>280.1</v>
+        <v>280.2666666666667</v>
       </c>
       <c r="B35">
-        <v>252.5392653387681</v>
+        <v>251.9165464891828</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>288.2515151515152</v>
+        <v>288.3989898989899</v>
       </c>
       <c r="B36">
-        <v>259.7202210671932</v>
+        <v>259.0494791982699</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>296.4030303030303</v>
+        <v>296.5313131313131</v>
       </c>
       <c r="B37">
-        <v>266.8965869737924</v>
+        <v>266.1776160256525</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>304.5545454545455</v>
+        <v>304.6636363636363</v>
       </c>
       <c r="B38">
-        <v>274.0684921317393</v>
+        <v>273.3010916245614</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>312.7060606060606</v>
+        <v>312.7959595959596</v>
       </c>
       <c r="B39">
-        <v>281.236058626278</v>
+        <v>280.4200333736278</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>320.8575757575758</v>
+        <v>320.9282828282828</v>
       </c>
       <c r="B40">
-        <v>288.3994021054137</v>
+        <v>287.5345619488772</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>329.009090909091</v>
+        <v>329.060606060606</v>
       </c>
       <c r="B41">
-        <v>295.5586322743101</v>
+        <v>294.6447918373839</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>337.1606060606061</v>
+        <v>337.1929292929293</v>
       </c>
       <c r="B42">
-        <v>302.7138533404</v>
+        <v>301.7508317998337</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>345.3121212121213</v>
+        <v>345.3252525252525</v>
       </c>
       <c r="B43">
-        <v>309.8651644151973</v>
+        <v>308.8527852881869</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>353.4636363636364</v>
+        <v>353.4575757575757</v>
       </c>
       <c r="B44">
-        <v>317.0126598779451</v>
+        <v>315.9507508237555</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>361.6151515151516</v>
+        <v>361.589898989899</v>
       </c>
       <c r="B45">
-        <v>324.1564297055215</v>
+        <v>323.044822340271</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>369.7666666666667</v>
+        <v>369.7222222222222</v>
       </c>
       <c r="B46">
-        <v>331.2965597724252</v>
+        <v>330.1350894959003</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>377.9181818181819</v>
+        <v>377.8545454545454</v>
       </c>
       <c r="B47">
-        <v>338.4331321241539</v>
+        <v>337.2216379576412</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>386.069696969697</v>
+        <v>385.9868686868687</v>
       </c>
       <c r="B48">
-        <v>345.56622522686</v>
+        <v>344.3045496610847</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>394.2212121212122</v>
+        <v>394.1191919191919</v>
       </c>
       <c r="B49">
-        <v>352.6959141957972</v>
+        <v>351.3839030481529</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>402.3727272727273</v>
+        <v>402.2515151515152</v>
       </c>
       <c r="B50">
-        <v>359.8222710047646</v>
+        <v>358.4597732850949</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>410.5242424242425</v>
+        <v>410.3838383838383</v>
       </c>
       <c r="B51">
-        <v>366.9453646784804</v>
+        <v>365.5322324627465</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>418.6757575757576</v>
+        <v>418.5161616161616</v>
       </c>
       <c r="B52">
-        <v>374.0652614695866</v>
+        <v>372.6013497808208</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>426.8272727272728</v>
+        <v>426.6484848484848</v>
       </c>
       <c r="B53">
-        <v>381.182025021791</v>
+        <v>379.667191717787</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>434.978787878788</v>
+        <v>434.7808080808081</v>
       </c>
       <c r="B54">
-        <v>388.2957165204745</v>
+        <v>386.7298221877192</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>443.1303030303031</v>
+        <v>442.9131313131313</v>
       </c>
       <c r="B55">
-        <v>395.4063948319429</v>
+        <v>393.7893026853394</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>451.2818181818183</v>
+        <v>451.0454545454545</v>
       </c>
       <c r="B56">
-        <v>402.5141166323755</v>
+        <v>400.8456924203433</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>459.4333333333334</v>
+        <v>459.1777777777777</v>
       </c>
       <c r="B57">
-        <v>409.6189365274017</v>
+        <v>407.8990484419801</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>467.5848484848485</v>
+        <v>467.310101010101</v>
       </c>
       <c r="B58">
-        <v>416.7209071631441</v>
+        <v>414.9494257547545</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>475.7363636363637</v>
+        <v>475.4424242424242</v>
       </c>
       <c r="B59">
-        <v>423.8200793294729</v>
+        <v>421.9968774260248</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>483.8878787878788</v>
+        <v>483.5747474747474</v>
       </c>
       <c r="B60">
-        <v>430.9165020561438</v>
+        <v>429.0414546861965</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>492.039393939394</v>
+        <v>491.7070707070707</v>
       </c>
       <c r="B61">
-        <v>438.0102227024205</v>
+        <v>436.0832070221346</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>500.1909090909091</v>
+        <v>499.8393939393939</v>
       </c>
       <c r="B62">
-        <v>445.1012870407239</v>
+        <v>443.1221822643595</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>508.3424242424243</v>
+        <v>507.9717171717172</v>
       </c>
       <c r="B63">
-        <v>452.1897393347988</v>
+        <v>450.158426668534</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>516.4939393939394</v>
+        <v>516.1040404040403</v>
       </c>
       <c r="B64">
-        <v>459.2756224128364</v>
+        <v>457.1919849917008</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>524.6454545454546</v>
+        <v>524.2363636363636</v>
       </c>
       <c r="B65">
-        <v>466.3589777359558</v>
+        <v>464.2229005636867</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>532.7969696969698</v>
+        <v>532.3686868686868</v>
       </c>
       <c r="B66">
-        <v>473.4398454624046</v>
+        <v>471.2512153540482</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>540.9484848484849</v>
+        <v>540.50101010101</v>
       </c>
       <c r="B67">
-        <v>480.5182645078086</v>
+        <v>478.2769700349036</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>549.1</v>
+        <v>548.6333333333333</v>
       </c>
       <c r="B68">
-        <v>487.5942726017691</v>
+        <v>485.3002040399605</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>557.2515151515153</v>
+        <v>556.7656565656565</v>
       </c>
       <c r="B69">
-        <v>494.6679063410801</v>
+        <v>492.3209556200219</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>565.4030303030304</v>
+        <v>564.8979797979798</v>
       </c>
       <c r="B70">
-        <v>501.7392012398143</v>
+        <v>499.3392618952312</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>573.5545454545455</v>
+        <v>573.030303030303</v>
       </c>
       <c r="B71">
-        <v>508.8081917765049</v>
+        <v>506.3551589042891</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>581.7060606060606</v>
+        <v>581.1626262626262</v>
       </c>
       <c r="B72">
-        <v>515.8749114386283</v>
+        <v>513.3686816508622</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>589.8575757575759</v>
+        <v>589.2949494949495</v>
       </c>
       <c r="B73">
-        <v>522.9393927645814</v>
+        <v>520.3798641473762</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>598.009090909091</v>
+        <v>597.4272727272727</v>
       </c>
       <c r="B74">
-        <v>530.0016673833236</v>
+        <v>527.3887394563787</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>606.1606060606061</v>
+        <v>605.559595959596</v>
       </c>
       <c r="B75">
-        <v>537.0617660518462</v>
+        <v>534.3953397296362</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>614.3121212121213</v>
+        <v>613.6919191919192</v>
       </c>
       <c r="B76">
-        <v>544.1197186906147</v>
+        <v>541.3996962451176</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>622.4636363636364</v>
+        <v>621.8242424242424</v>
       </c>
       <c r="B77">
-        <v>551.1755544171186</v>
+        <v>548.401839442007</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>630.6151515151516</v>
+        <v>629.9565656565657</v>
       </c>
       <c r="B78">
-        <v>558.229301577655</v>
+        <v>555.4017989538729</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>638.7666666666668</v>
+        <v>638.0888888888888</v>
       </c>
       <c r="B79">
-        <v>565.280987777458</v>
+        <v>562.3996036401149</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>646.9181818181819</v>
+        <v>646.221212121212</v>
       </c>
       <c r="B80">
-        <v>572.3306399092837</v>
+        <v>569.3952816157978</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>655.069696969697</v>
+        <v>654.3535353535353</v>
       </c>
       <c r="B81">
-        <v>579.3782841805438</v>
+        <v>576.3888602799744</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>663.2212121212123</v>
+        <v>662.4858585858585</v>
       </c>
       <c r="B82">
-        <v>586.4239461390831</v>
+        <v>583.3803663425931</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>671.3727272727274</v>
+        <v>670.6181818181818</v>
       </c>
       <c r="B83">
-        <v>593.4676506976808</v>
+        <v>590.3698258500751</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>679.5242424242425</v>
+        <v>678.750505050505</v>
       </c>
       <c r="B84">
-        <v>600.5094221573565</v>
+        <v>597.3572642096444</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>687.6757575757576</v>
+        <v>686.8828282828282</v>
       </c>
       <c r="B85">
-        <v>607.5492842295514</v>
+        <v>604.3427062124849</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>695.8272727272728</v>
+        <v>695.0151515151515</v>
       </c>
       <c r="B86">
-        <v>614.5872600572509</v>
+        <v>611.3261760557937</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>703.978787878788</v>
+        <v>703.1474747474747</v>
       </c>
       <c r="B87">
-        <v>621.6233722351128</v>
+        <v>618.3076973637967</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>712.1303030303031</v>
+        <v>711.279797979798</v>
       </c>
       <c r="B88">
-        <v>628.6576428286576</v>
+        <v>625.2872932077858</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>720.2818181818183</v>
+        <v>719.4121212121212</v>
       </c>
       <c r="B89">
-        <v>635.6900933925751</v>
+        <v>632.2649861252343</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>728.4333333333334</v>
+        <v>727.5444444444444</v>
       </c>
       <c r="B90">
-        <v>642.7207449881982</v>
+        <v>639.2407981380436</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>736.5848484848485</v>
+        <v>735.6767676767677</v>
       </c>
       <c r="B91">
-        <v>649.7496182001894</v>
+        <v>646.2147507699681</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>744.7363636363638</v>
+        <v>743.8090909090909</v>
       </c>
       <c r="B92">
-        <v>656.7767331524846</v>
+        <v>653.1868650632653</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>752.8878787878789</v>
+        <v>751.9414141414142</v>
       </c>
       <c r="B93">
-        <v>663.8021095235353</v>
+        <v>660.1571615946145</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>761.039393939394</v>
+        <v>760.0737373737373</v>
       </c>
       <c r="B94">
-        <v>670.8257665608867</v>
+        <v>667.125660490341</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>769.1909090909091</v>
+        <v>768.2060606060605</v>
       </c>
       <c r="B95">
-        <v>677.8477230951282</v>
+        <v>674.0923814409869</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>777.3424242424244</v>
+        <v>776.3383838383838</v>
       </c>
       <c r="B96">
-        <v>684.8679975532482</v>
+        <v>681.057343715259</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>785.4939393939395</v>
+        <v>784.470707070707</v>
       </c>
       <c r="B97">
-        <v>691.8866079714261</v>
+        <v>688.0205661733909</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>793.6454545454546</v>
+        <v>792.6030303030303</v>
       </c>
       <c r="B98">
-        <v>698.9035720072912</v>
+        <v>694.9820672799465</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>801.7969696969698</v>
+        <v>800.7353535353535</v>
       </c>
       <c r="B99">
-        <v>705.9189069516738</v>
+        <v>701.9418651160945</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>809.9484848484849</v>
+        <v>808.8676767676767</v>
       </c>
       <c r="B100">
-        <v>712.9326297398754</v>
+        <v>708.8999773913837</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>818.1</v>
+        <v>817</v>
       </c>
       <c r="B101">
-        <v>719.9447569624853</v>
+        <v>715.8564214550388</v>
       </c>
     </row>
   </sheetData>
@@ -1544,232 +1544,232 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11.1</v>
+        <v>11.9</v>
       </c>
       <c r="B2">
-        <v>1.772944819596294</v>
+        <v>1.345362404707371</v>
       </c>
       <c r="C2">
-        <v>1.324381</v>
+        <v>1.410798</v>
       </c>
       <c r="D2">
-        <v>0.1154953069412106</v>
+        <v>0.1262844054487946</v>
       </c>
       <c r="E2">
-        <v>1.045322978786657</v>
+        <v>1.075546961392531</v>
       </c>
       <c r="F2">
-        <v>0.1220129415950218</v>
+        <v>0.1494648353237909</v>
       </c>
       <c r="G2">
-        <v>0.1158107723472548</v>
+        <v>0.1587913879138593</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>38.8</v>
+        <v>37.7</v>
       </c>
       <c r="B3">
-        <v>3.883869776967869</v>
+        <v>1.633333333333333</v>
       </c>
       <c r="C3">
-        <v>1.423443</v>
+        <v>1.533037</v>
       </c>
       <c r="D3">
-        <v>0.1072362327351265</v>
+        <v>0.08404640928346936</v>
       </c>
       <c r="E3">
-        <v>1.588831725594207</v>
+        <v>1.576341350205793</v>
       </c>
       <c r="F3">
-        <v>0.1533400810501681</v>
+        <v>0.1855526367212484</v>
       </c>
       <c r="G3">
-        <v>0.1600339371524176</v>
+        <v>0.1870105216986532</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>85.5</v>
+        <v>78.8</v>
       </c>
       <c r="B4">
-        <v>5.335936864527373</v>
+        <v>2.731706833139716</v>
       </c>
       <c r="C4">
-        <v>1.491745</v>
+        <v>1.545694</v>
       </c>
       <c r="D4">
-        <v>0.1049152813702561</v>
+        <v>0.1167062390620142</v>
       </c>
       <c r="E4">
-        <v>1.931966114728173</v>
+        <v>1.896526217489555</v>
       </c>
       <c r="F4">
-        <v>0.173694590859324</v>
+        <v>0.1891235211055446</v>
       </c>
       <c r="G4">
-        <v>0.1879534301322856</v>
+        <v>0.2050525361612315</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>141.7</v>
+        <v>125.4</v>
       </c>
       <c r="B5">
-        <v>5.711683931498078</v>
+        <v>1.528979325490629</v>
       </c>
       <c r="C5">
-        <v>1.597761</v>
+        <v>1.772188</v>
       </c>
       <c r="D5">
-        <v>0.09971430597740503</v>
+        <v>0.06372116163061967</v>
       </c>
       <c r="E5">
-        <v>2.15136985024746</v>
+        <v>2.098297536494698</v>
       </c>
       <c r="F5">
-        <v>0.2035118161895223</v>
+        <v>0.2485097914966998</v>
       </c>
       <c r="G5">
-        <v>0.2058054474396969</v>
+        <v>0.2164220961485811</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>213.9</v>
+        <v>204.4</v>
       </c>
       <c r="B6">
-        <v>6.730444925031992</v>
+        <v>4.13440846232364</v>
       </c>
       <c r="C6">
-        <v>1.647979</v>
+        <v>1.801775</v>
       </c>
       <c r="D6">
-        <v>0.1015275066663655</v>
+        <v>0.07252252764562961</v>
       </c>
       <c r="E6">
-        <v>2.330210784571528</v>
+        <v>2.310480891462675</v>
       </c>
       <c r="F6">
-        <v>0.2169516732335312</v>
+        <v>0.2557005566988577</v>
       </c>
       <c r="G6">
-        <v>0.2203570294684641</v>
+        <v>0.2283783612635652</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>311.8</v>
+        <v>290.6</v>
       </c>
       <c r="B7">
-        <v>6.915039969355041</v>
+        <v>4.487513540679045</v>
       </c>
       <c r="C7">
-        <v>1.711226</v>
+        <v>1.588418</v>
       </c>
       <c r="D7">
-        <v>0.08465609699379144</v>
+        <v>0.05741524245548583</v>
       </c>
       <c r="E7">
-        <v>2.493876110852823</v>
+        <v>2.463295609962003</v>
       </c>
       <c r="F7">
-        <v>0.2333073701906031</v>
+        <v>0.2009647998577111</v>
       </c>
       <c r="G7">
-        <v>0.2336738320765945</v>
+        <v>0.2369892784023075</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>396.9</v>
+        <v>389.3</v>
       </c>
       <c r="B8">
-        <v>7.271634387582111</v>
+        <v>4.887739763939974</v>
       </c>
       <c r="C8">
-        <v>1.716682</v>
+        <v>1.70431</v>
       </c>
       <c r="D8">
-        <v>0.081958860842905</v>
+        <v>0.082260099562303</v>
       </c>
       <c r="E8">
-        <v>2.598681098907163</v>
+        <v>2.590284403718162</v>
       </c>
       <c r="F8">
-        <v>0.2346898534393826</v>
+        <v>0.2315485922173505</v>
       </c>
       <c r="G8">
-        <v>0.2422014009268735</v>
+        <v>0.2441449371721004</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>510.2</v>
+        <v>518.1</v>
       </c>
       <c r="B9">
-        <v>7.631513611335565</v>
+        <v>6.563281699475246</v>
       </c>
       <c r="C9">
-        <v>1.726549</v>
+        <v>1.626741</v>
       </c>
       <c r="D9">
-        <v>0.06791895506083374</v>
+        <v>0.0578871389755771</v>
       </c>
       <c r="E9">
-        <v>2.707740454273771</v>
+        <v>2.714413592287121</v>
       </c>
       <c r="F9">
-        <v>0.2371789082734474</v>
+        <v>0.2113184126635239</v>
       </c>
       <c r="G9">
-        <v>0.2510751308792455</v>
+        <v>0.2511394607871233</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>663.7</v>
+        <v>658.6</v>
       </c>
       <c r="B10">
-        <v>11.09959959237769</v>
+        <v>9.318082778483278</v>
       </c>
       <c r="C10">
-        <v>1.701934</v>
+        <v>1.713368</v>
       </c>
       <c r="D10">
-        <v>0.0576653793729151</v>
+        <v>0.05174093665775892</v>
       </c>
       <c r="E10">
-        <v>2.821971817642043</v>
+        <v>2.818621726375889</v>
       </c>
       <c r="F10">
-        <v>0.2309427143904175</v>
+        <v>0.2338506514680618</v>
       </c>
       <c r="G10">
-        <v>0.2603696867402614</v>
+        <v>0.2570114580438882</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>818.1</v>
+        <v>817</v>
       </c>
       <c r="B11">
-        <v>10.85403150907532</v>
+        <v>8.299933065325822</v>
       </c>
       <c r="C11">
-        <v>1.711719</v>
+        <v>1.718732</v>
       </c>
       <c r="D11">
-        <v>0.04553465133402375</v>
+        <v>0.03766979629476232</v>
       </c>
       <c r="E11">
-        <v>2.912806392661292</v>
+        <v>2.912222056532416</v>
       </c>
       <c r="F11">
-        <v>0.2334324713424235</v>
+        <v>0.2352081629028564</v>
       </c>
       <c r="G11">
-        <v>0.2677605381381056</v>
+        <v>0.2622857188942285</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1792,7 +1792,7 @@
         <v>0.3560564671791732</v>
       </c>
       <c r="G12">
-        <v>0.2500776824418153</v>
+        <v>0.2500726711492806</v>
       </c>
     </row>
   </sheetData>
@@ -1818,802 +1818,802 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>11.1</v>
+        <v>11.9</v>
       </c>
       <c r="B2">
-        <v>1.304895624258687</v>
+        <v>1.447575165001846</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>19.25151515151515</v>
+        <v>20.03232323232323</v>
       </c>
       <c r="B3">
-        <v>1.365778664436633</v>
+        <v>1.490793527168109</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>27.40303030303031</v>
+        <v>28.16464646464647</v>
       </c>
       <c r="B4">
-        <v>1.40630220823273</v>
+        <v>1.519763403641782</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>35.55454545454545</v>
+        <v>36.2969696969697</v>
       </c>
       <c r="B5">
-        <v>1.436960245661682</v>
+        <v>1.541696490065472</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>43.70606060606061</v>
+        <v>44.42929292929293</v>
       </c>
       <c r="B6">
-        <v>1.461735635070549</v>
+        <v>1.559402939079937</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>51.85757575757577</v>
+        <v>52.56161616161616</v>
       </c>
       <c r="B7">
-        <v>1.482584833117752</v>
+        <v>1.574279455032929</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>60.00909090909092</v>
+        <v>60.6939393939394</v>
       </c>
       <c r="B8">
-        <v>1.500618952338685</v>
+        <v>1.587124210256446</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>68.16060606060606</v>
+        <v>68.82626262626263</v>
       </c>
       <c r="B9">
-        <v>1.516531574122876</v>
+        <v>1.598437216937782</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>76.31212121212121</v>
+        <v>76.95858585858586</v>
       </c>
       <c r="B10">
-        <v>1.530785604449463</v>
+        <v>1.608552885202207</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>84.46363636363637</v>
+        <v>85.09090909090909</v>
       </c>
       <c r="B11">
-        <v>1.543705835399831</v>
+        <v>1.617706129944206</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>92.61515151515152</v>
+        <v>93.22323232323232</v>
       </c>
       <c r="B12">
-        <v>1.555529183389478</v>
+        <v>1.626068415622183</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>100.7666666666667</v>
+        <v>101.3555555555556</v>
       </c>
       <c r="B13">
-        <v>1.566433924088038</v>
+        <v>1.633768799655381</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>108.9181818181818</v>
+        <v>109.4878787878788</v>
       </c>
       <c r="B14">
-        <v>1.576557668000334</v>
+        <v>1.640906901483526</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>117.069696969697</v>
+        <v>117.620202020202</v>
       </c>
       <c r="B15">
-        <v>1.586008918167005</v>
+        <v>1.647561255375935</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>125.2212121212121</v>
+        <v>125.7525252525253</v>
       </c>
       <c r="B16">
-        <v>1.594874781767111</v>
+        <v>1.653794890527843</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>133.3727272727273</v>
+        <v>133.8848484848485</v>
       </c>
       <c r="B17">
-        <v>1.603226278681311</v>
+        <v>1.659659175755748</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>141.5242424242424</v>
+        <v>142.0171717171717</v>
       </c>
       <c r="B18">
-        <v>1.611122094688044</v>
+        <v>1.665196539454405</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>149.6757575757576</v>
+        <v>150.149494949495</v>
       </c>
       <c r="B19">
-        <v>1.618611296987973</v>
+        <v>1.670442438408028</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>157.8272727272727</v>
+        <v>158.2818181818182</v>
       </c>
       <c r="B20">
-        <v>1.625735338998405</v>
+        <v>1.675426811716933</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>165.9787878787879</v>
+        <v>166.4141414141414</v>
       </c>
       <c r="B21">
-        <v>1.632529567002124</v>
+        <v>1.68017517363069</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>174.1303030303031</v>
+        <v>174.5464646464646</v>
       </c>
       <c r="B22">
-        <v>1.639024370465561</v>
+        <v>1.684709447971873</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>182.2818181818182</v>
+        <v>182.6787878787879</v>
       </c>
       <c r="B23">
-        <v>1.645246072803555</v>
+        <v>1.689048614272976</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>190.4333333333333</v>
+        <v>190.8111111111111</v>
       </c>
       <c r="B24">
-        <v>1.651217629985158</v>
+        <v>1.693209214485977</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>198.5848484848485</v>
+        <v>198.9434343434343</v>
       </c>
       <c r="B25">
-        <v>1.656959184775088</v>
+        <v>1.697205754929482</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>206.7363636363636</v>
+        <v>207.0757575757576</v>
       </c>
       <c r="B26">
-        <v>1.66248851106735</v>
+        <v>1.701051028472715</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>214.8878787878788</v>
+        <v>215.2080808080808</v>
       </c>
       <c r="B27">
-        <v>1.667821373525224</v>
+        <v>1.704756375254502</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>223.039393939394</v>
+        <v>223.3404040404041</v>
       </c>
       <c r="B28">
-        <v>1.672971821231351</v>
+        <v>1.708331895513118</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>231.1909090909091</v>
+        <v>231.4727272727273</v>
       </c>
       <c r="B29">
-        <v>1.677952429396277</v>
+        <v>1.711786624724964</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>239.3424242424242</v>
+        <v>239.6050505050505</v>
       </c>
       <c r="B30">
-        <v>1.682774499798702</v>
+        <v>1.715128678800505</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>247.4939393939394</v>
+        <v>247.7373737373737</v>
       </c>
       <c r="B31">
-        <v>1.687448228152647</v>
+        <v>1.718365375287039</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>255.6454545454546</v>
+        <v>255.869696969697</v>
       </c>
       <c r="B32">
-        <v>1.691982844755876</v>
+        <v>1.721503335191358</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>263.7969696969697</v>
+        <v>264.0020202020202</v>
       </c>
       <c r="B33">
-        <v>1.696386733391472</v>
+        <v>1.724548569031556</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>271.9484848484849</v>
+        <v>272.1343434343434</v>
       </c>
       <c r="B34">
-        <v>1.700667532405842</v>
+        <v>1.727506549965815</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>280.1</v>
+        <v>280.2666666666667</v>
       </c>
       <c r="B35">
-        <v>1.704832221083405</v>
+        <v>1.730382276262853</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>288.2515151515152</v>
+        <v>288.3989898989899</v>
       </c>
       <c r="B36">
-        <v>1.708887193818004</v>
+        <v>1.733180324928357</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>296.4030303030303</v>
+        <v>296.5313131313131</v>
       </c>
       <c r="B37">
-        <v>1.712838324097967</v>
+        <v>1.735904897950914</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>304.5545454545455</v>
+        <v>304.6636363636363</v>
       </c>
       <c r="B38">
-        <v>1.716691019942638</v>
+        <v>1.738559862355677</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>312.7060606060606</v>
+        <v>312.7959595959596</v>
       </c>
       <c r="B39">
-        <v>1.720450272128473</v>
+        <v>1.741148785036396</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>320.8575757575758</v>
+        <v>320.9282828282828</v>
       </c>
       <c r="B40">
-        <v>1.724120696304253</v>
+        <v>1.743674963163253</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>329.009090909091</v>
+        <v>329.060606060606</v>
       </c>
       <c r="B41">
-        <v>1.727706569903851</v>
+        <v>1.74614145082523</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>337.1606060606061</v>
+        <v>337.1929292929293</v>
       </c>
       <c r="B42">
-        <v>1.731211864610993</v>
+        <v>1.748551082453944</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>345.3121212121213</v>
+        <v>345.3252525252525</v>
       </c>
       <c r="B43">
-        <v>1.734640275005613</v>
+        <v>1.750906493485291</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>353.4636363636364</v>
+        <v>353.4575757575757</v>
       </c>
       <c r="B44">
-        <v>1.737995243919637</v>
+        <v>1.753210138641397</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>361.6151515151516</v>
+        <v>361.589898989899</v>
       </c>
       <c r="B45">
-        <v>1.741279984946694</v>
+        <v>1.755464308154924</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>369.7666666666667</v>
+        <v>369.7222222222222</v>
       </c>
       <c r="B46">
-        <v>1.744497502481618</v>
+        <v>1.757671142207975</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>377.9181818181819</v>
+        <v>377.8545454545454</v>
       </c>
       <c r="B47">
-        <v>1.747650609608836</v>
+        <v>1.759832643816672</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>386.069696969697</v>
+        <v>385.9868686868687</v>
       </c>
       <c r="B48">
-        <v>1.750741944111596</v>
+        <v>1.761950690358316</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>394.2212121212122</v>
+        <v>394.1191919191919</v>
       </c>
       <c r="B49">
-        <v>1.753773982834613</v>
+        <v>1.76402704390946</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>402.3727272727273</v>
+        <v>402.2515151515152</v>
       </c>
       <c r="B50">
-        <v>1.756749054599769</v>
+        <v>1.766063360539379</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>410.5242424242425</v>
+        <v>410.3838383838383</v>
       </c>
       <c r="B51">
-        <v>1.759669351846768</v>
+        <v>1.768061198683288</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>418.6757575757576</v>
+        <v>418.5161616161616</v>
       </c>
       <c r="B52">
-        <v>1.762536941147235</v>
+        <v>1.770022026702724</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>426.8272727272728</v>
+        <v>426.6484848484848</v>
       </c>
       <c r="B53">
-        <v>1.765353772720934</v>
+        <v>1.771947229726139</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>434.978787878788</v>
+        <v>434.7808080808081</v>
       </c>
       <c r="B54">
-        <v>1.768121689065914</v>
+        <v>1.773838115850526</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>443.1303030303031</v>
+        <v>442.9131313131313</v>
       </c>
       <c r="B55">
-        <v>1.770842432800036</v>
+        <v>1.775695921774533</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>451.2818181818183</v>
+        <v>451.0454545454545</v>
       </c>
       <c r="B56">
-        <v>1.773517653799001</v>
+        <v>1.777521817924554</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>459.4333333333334</v>
+        <v>459.1777777777777</v>
       </c>
       <c r="B57">
-        <v>1.776148915705485</v>
+        <v>1.77931691312771</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>467.5848484848485</v>
+        <v>467.310101010101</v>
       </c>
       <c r="B58">
-        <v>1.778737701874885</v>
+        <v>1.781082258879015</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>475.7363636363637</v>
+        <v>475.4424242424242</v>
       </c>
       <c r="B59">
-        <v>1.781285420815326</v>
+        <v>1.782818853244374</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>483.8878787878788</v>
+        <v>483.5747474747474</v>
       </c>
       <c r="B60">
-        <v>1.783793411172844</v>
+        <v>1.784527644436137</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>492.039393939394</v>
+        <v>491.7070707070707</v>
       </c>
       <c r="B61">
-        <v>1.786262946306717</v>
+        <v>1.786209534093701</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>500.1909090909091</v>
+        <v>499.8393939393939</v>
       </c>
       <c r="B62">
-        <v>1.788695238494838</v>
+        <v>1.787865380297924</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>508.3424242424243</v>
+        <v>507.9717171717172</v>
       </c>
       <c r="B63">
-        <v>1.791091442804539</v>
+        <v>1.78949600034489</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>516.4939393939394</v>
+        <v>516.1040404040403</v>
       </c>
       <c r="B64">
-        <v>1.793452660660402</v>
+        <v>1.791102173301784</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>524.6454545454546</v>
+        <v>524.2363636363636</v>
       </c>
       <c r="B65">
-        <v>1.795779943137122</v>
+        <v>1.792684642365106</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>532.7969696969698</v>
+        <v>532.3686868686868</v>
       </c>
       <c r="B66">
-        <v>1.798074294002562</v>
+        <v>1.794244117039331</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>540.9484848484849</v>
+        <v>540.50101010101</v>
       </c>
       <c r="B67">
-        <v>1.800336672533438</v>
+        <v>1.795781275152209</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>549.1</v>
+        <v>548.6333333333333</v>
       </c>
       <c r="B68">
-        <v>1.80256799612377</v>
+        <v>1.797296764721203</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>557.2515151515153</v>
+        <v>556.7656565656565</v>
       </c>
       <c r="B69">
-        <v>1.804769142704201</v>
+        <v>1.798791205684091</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>565.4030303030304</v>
+        <v>564.8979797979798</v>
       </c>
       <c r="B70">
-        <v>1.80694095298843</v>
+        <v>1.80026519150545</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>573.5545454545455</v>
+        <v>573.030303030303</v>
       </c>
       <c r="B71">
-        <v>1.809084232561417</v>
+        <v>1.801719290669572</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>581.7060606060606</v>
+        <v>581.1626262626262</v>
       </c>
       <c r="B72">
-        <v>1.811199753822591</v>
+        <v>1.80315404806932</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>589.8575757575759</v>
+        <v>589.2949494949495</v>
       </c>
       <c r="B73">
-        <v>1.813288257795995</v>
+        <v>1.804569986299538</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>598.009090909091</v>
+        <v>597.4272727272727</v>
       </c>
       <c r="B74">
-        <v>1.815350455818192</v>
+        <v>1.805967606862778</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>606.1606060606061</v>
+        <v>605.559595959596</v>
       </c>
       <c r="B75">
-        <v>1.817387031113727</v>
+        <v>1.8073473912944</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>614.3121212121213</v>
+        <v>613.6919191919192</v>
       </c>
       <c r="B76">
-        <v>1.81939864026704</v>
+        <v>1.808709802213449</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>622.4636363636364</v>
+        <v>621.8242424242424</v>
       </c>
       <c r="B77">
-        <v>1.82138591459891</v>
+        <v>1.810055284305105</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>630.6151515151516</v>
+        <v>629.9565656565657</v>
       </c>
       <c r="B78">
-        <v>1.823349461454789</v>
+        <v>1.81138426524</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>638.7666666666668</v>
+        <v>638.0888888888888</v>
       </c>
       <c r="B79">
-        <v>1.825289865411719</v>
+        <v>1.812697156535217</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>646.9181818181819</v>
+        <v>646.221212121212</v>
       </c>
       <c r="B80">
-        <v>1.827207689409956</v>
+        <v>1.813994354361367</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>655.069696969697</v>
+        <v>654.3535353535353</v>
       </c>
       <c r="B81">
-        <v>1.829103475814866</v>
+        <v>1.815276240299737</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>663.2212121212123</v>
+        <v>662.4858585858585</v>
       </c>
       <c r="B82">
-        <v>1.83097774741422</v>
+        <v>1.816543182053199</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>671.3727272727274</v>
+        <v>670.6181818181818</v>
       </c>
       <c r="B83">
-        <v>1.832831008355543</v>
+        <v>1.817795534114222</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>679.5242424242425</v>
+        <v>678.750505050505</v>
       </c>
       <c r="B84">
-        <v>1.834663745027806</v>
+        <v>1.819033638393051</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>687.6757575757576</v>
+        <v>686.8828282828282</v>
       </c>
       <c r="B85">
-        <v>1.836476426891393</v>
+        <v>1.820257824808903</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>695.8272727272728</v>
+        <v>695.0151515151515</v>
       </c>
       <c r="B86">
-        <v>1.83826950725995</v>
+        <v>1.821468411846737</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>703.978787878788</v>
+        <v>703.1474747474747</v>
       </c>
       <c r="B87">
-        <v>1.840043424037431</v>
+        <v>1.822665707081997</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>712.1303030303031</v>
+        <v>711.279797979798</v>
       </c>
       <c r="B88">
-        <v>1.841798600413402</v>
+        <v>1.82385000767552</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>720.2818181818183</v>
+        <v>719.4121212121212</v>
       </c>
       <c r="B89">
-        <v>1.843535445519407</v>
+        <v>1.825021600840604</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>728.4333333333334</v>
+        <v>727.5444444444444</v>
       </c>
       <c r="B90">
-        <v>1.845254355048993</v>
+        <v>1.826180764284133</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>736.5848484848485</v>
+        <v>735.6767676767677</v>
       </c>
       <c r="B91">
-        <v>1.846955711843795</v>
+        <v>1.827327766623431</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>744.7363636363638</v>
+        <v>743.8090909090909</v>
       </c>
       <c r="B92">
-        <v>1.848639886447885</v>
+        <v>1.828462867780472</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>752.8878787878789</v>
+        <v>751.9414141414142</v>
       </c>
       <c r="B93">
-        <v>1.85030723763243</v>
+        <v>1.829586319354878</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>761.039393939394</v>
+        <v>760.0737373737373</v>
       </c>
       <c r="B94">
-        <v>1.851958112892555</v>
+        <v>1.830698364977078</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>769.1909090909091</v>
+        <v>768.2060606060605</v>
       </c>
       <c r="B95">
-        <v>1.853592848918168</v>
+        <v>1.831799240642888</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>777.3424242424244</v>
+        <v>776.3383838383838</v>
       </c>
       <c r="B96">
-        <v>1.855211772040361</v>
+        <v>1.832889175030656</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>785.4939393939395</v>
+        <v>784.470707070707</v>
       </c>
       <c r="B97">
-        <v>1.856815198654908</v>
+        <v>1.833968389802072</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>793.6454545454546</v>
+        <v>792.6030303030303</v>
       </c>
       <c r="B98">
-        <v>1.858403435624244</v>
+        <v>1.835037099887631</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>801.7969696969698</v>
+        <v>800.7353535353535</v>
       </c>
       <c r="B99">
-        <v>1.859976780659253</v>
+        <v>1.836095513757688</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>809.9484848484849</v>
+        <v>808.8676767676767</v>
       </c>
       <c r="B100">
-        <v>1.861535522682036</v>
+        <v>1.837143833679972</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>818.1</v>
+        <v>817</v>
       </c>
       <c r="B101">
-        <v>1.863079942170831</v>
+        <v>1.838182255964352</v>
       </c>
     </row>
   </sheetData>
@@ -2654,232 +2654,232 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11.1</v>
+        <v>11.9</v>
       </c>
       <c r="B2">
-        <v>1.772944819596294</v>
+        <v>1.345362404707371</v>
       </c>
       <c r="C2">
-        <v>0.179803</v>
+        <v>0.151628</v>
       </c>
       <c r="D2">
-        <v>0.03279208634377779</v>
+        <v>0.0243383158734444</v>
       </c>
       <c r="E2">
-        <v>1.045322978786657</v>
+        <v>1.075546961392531</v>
       </c>
       <c r="F2">
-        <v>-0.7452030663704408</v>
+        <v>-0.8192205934094156</v>
       </c>
       <c r="G2">
-        <v>-0.804320889745944</v>
+        <v>-0.8512471913668236</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>38.8</v>
+        <v>37.7</v>
       </c>
       <c r="B3">
-        <v>3.883869776967869</v>
+        <v>1.633333333333333</v>
       </c>
       <c r="C3">
-        <v>0.04157</v>
+        <v>0.04234300000000001</v>
       </c>
       <c r="D3">
-        <v>0.005013604602589948</v>
+        <v>0.002718226157707347</v>
       </c>
       <c r="E3">
-        <v>1.588831725594207</v>
+        <v>1.576341350205793</v>
       </c>
       <c r="F3">
-        <v>-1.381219975493785</v>
+        <v>-1.373218375478392</v>
       </c>
       <c r="G3">
-        <v>-1.346336806331133</v>
+        <v>-1.345009754014564</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>85.5</v>
+        <v>78.8</v>
       </c>
       <c r="B4">
-        <v>5.335936864527373</v>
+        <v>2.731706833139716</v>
       </c>
       <c r="C4">
-        <v>0.018223</v>
+        <v>0.01997</v>
       </c>
       <c r="D4">
-        <v>0.001630445099419855</v>
+        <v>0.001502090395267727</v>
       </c>
       <c r="E4">
-        <v>1.931966114728173</v>
+        <v>1.896526217489555</v>
       </c>
       <c r="F4">
-        <v>-1.739380124827628</v>
+        <v>-1.699621935129297</v>
       </c>
       <c r="G4">
-        <v>-1.68852872418117</v>
+        <v>-1.660698795510611</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>141.7</v>
+        <v>125.4</v>
       </c>
       <c r="B5">
-        <v>5.711683931498078</v>
+        <v>1.528979325490629</v>
       </c>
       <c r="C5">
-        <v>0.011585</v>
+        <v>0.01427</v>
       </c>
       <c r="D5">
-        <v>0.0009489810324764135</v>
+        <v>0.0005527145134093487</v>
       </c>
       <c r="E5">
-        <v>2.15136985024746</v>
+        <v>2.098297536494698</v>
       </c>
       <c r="F5">
-        <v>-1.936103961874006</v>
+        <v>-1.845576026885353</v>
       </c>
       <c r="G5">
-        <v>-1.90732983365404</v>
+        <v>-1.859636974065049</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>213.9</v>
+        <v>204.4</v>
       </c>
       <c r="B6">
-        <v>6.730444925031992</v>
+        <v>4.13440846232364</v>
       </c>
       <c r="C6">
-        <v>0.007890000000000001</v>
+        <v>0.008930999999999998</v>
       </c>
       <c r="D6">
-        <v>0.0006666583332812494</v>
+        <v>0.0004717966840823608</v>
       </c>
       <c r="E6">
-        <v>2.330210784571528</v>
+        <v>2.310480891462675</v>
       </c>
       <c r="F6">
-        <v>-2.10292299679058</v>
+        <v>-2.049099910633613</v>
       </c>
       <c r="G6">
-        <v>-2.085679553893105</v>
+        <v>-2.068840989606146</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>311.8</v>
+        <v>290.6</v>
       </c>
       <c r="B7">
-        <v>6.915039969355041</v>
+        <v>4.487513540679045</v>
       </c>
       <c r="C7">
-        <v>0.005552</v>
+        <v>0.005509</v>
       </c>
       <c r="D7">
-        <v>0.0003462972390559558</v>
+        <v>0.000255370971986507</v>
       </c>
       <c r="E7">
-        <v>2.493876110852823</v>
+        <v>2.463295609962003</v>
       </c>
       <c r="F7">
-        <v>-2.255550542553201</v>
+        <v>-2.258927227626679</v>
       </c>
       <c r="G7">
-        <v>-2.248895348226919</v>
+        <v>-2.219509984111707</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>396.9</v>
+        <v>389.3</v>
       </c>
       <c r="B8">
-        <v>7.271634387582111</v>
+        <v>4.887739763939974</v>
       </c>
       <c r="C8">
-        <v>0.004374</v>
+        <v>0.004415000000000001</v>
       </c>
       <c r="D8">
-        <v>0.000270079000788041</v>
+        <v>0.0002594791792118289</v>
       </c>
       <c r="E8">
-        <v>2.598681098907163</v>
+        <v>2.590284403718162</v>
       </c>
       <c r="F8">
-        <v>-2.359121221298382</v>
+        <v>-2.355069292086413</v>
       </c>
       <c r="G8">
-        <v>-2.353412473290018</v>
+        <v>-2.344715684561292</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>510.2</v>
+        <v>518.1</v>
       </c>
       <c r="B9">
-        <v>7.631513611335565</v>
+        <v>6.563281699475246</v>
       </c>
       <c r="C9">
-        <v>0.003409</v>
+        <v>0.003158</v>
       </c>
       <c r="D9">
-        <v>0.0001745498973550734</v>
+        <v>0.000145707469495104</v>
       </c>
       <c r="E9">
-        <v>2.707740454273771</v>
+        <v>2.714413592287121</v>
       </c>
       <c r="F9">
-        <v>-2.467372998771109</v>
+        <v>-2.500587874327724</v>
       </c>
       <c r="G9">
-        <v>-2.462172280392355</v>
+        <v>-2.467101932523124</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>663.7</v>
+        <v>658.6</v>
       </c>
       <c r="B10">
-        <v>11.09959959237769</v>
+        <v>9.318082778483278</v>
       </c>
       <c r="C10">
-        <v>0.002586</v>
+        <v>0.002616</v>
       </c>
       <c r="D10">
-        <v>0.0001247326028840184</v>
+        <v>0.0001107068200247843</v>
       </c>
       <c r="E10">
-        <v>2.821971817642043</v>
+        <v>2.818621726375889</v>
       </c>
       <c r="F10">
-        <v>-2.587371479455625</v>
+        <v>-2.58236226034777</v>
       </c>
       <c r="G10">
-        <v>-2.576089889782279</v>
+        <v>-2.569846844378747</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>818.1</v>
+        <v>817</v>
       </c>
       <c r="B11">
-        <v>10.85403150907532</v>
+        <v>8.299933065325822</v>
       </c>
       <c r="C11">
-        <v>0.002104</v>
+        <v>0.002112</v>
       </c>
       <c r="D11">
-        <v>8.224894460653515E-05</v>
+        <v>6.451184215148237E-05</v>
       </c>
       <c r="E11">
-        <v>2.912806392661292</v>
+        <v>2.912222056532416</v>
       </c>
       <c r="F11">
-        <v>-2.676954264518299</v>
+        <v>-2.675306086138225</v>
       </c>
       <c r="G11">
-        <v>-2.666674973694678</v>
+        <v>-2.662132900123662</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2902,7 +2902,7 @@
         <v>-2.338187314462739</v>
       </c>
       <c r="G12">
-        <v>-2.449947173224152</v>
+        <v>-2.448435846263907</v>
       </c>
     </row>
   </sheetData>
@@ -2928,802 +2928,802 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>11.1</v>
+        <v>11.9</v>
       </c>
       <c r="B2">
-        <v>0.1794433578307876</v>
+        <v>0.1512261455788152</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>19.25151515151515</v>
+        <v>20.03232323232323</v>
       </c>
       <c r="B3">
-        <v>0.09669819476620074</v>
+        <v>0.08707241536200769</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>27.40303030303031</v>
+        <v>28.16464646464647</v>
       </c>
       <c r="B4">
-        <v>0.06505115682750898</v>
+        <v>0.06067855073054387</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>35.55454545454545</v>
+        <v>36.2969696969697</v>
       </c>
       <c r="B5">
-        <v>0.04855903128658302</v>
+        <v>0.04637283173295762</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>43.70606060606061</v>
+        <v>44.42929292929293</v>
       </c>
       <c r="B6">
-        <v>0.03851365332906814</v>
+        <v>0.0374283071771774</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>51.85757575757577</v>
+        <v>52.56161616161616</v>
       </c>
       <c r="B7">
-        <v>0.03178510173081919</v>
+        <v>0.03132015220138892</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>60.00909090909092</v>
+        <v>60.6939393939394</v>
       </c>
       <c r="B8">
-        <v>0.02697941534827777</v>
+        <v>0.02689064206542731</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>68.16060606060606</v>
+        <v>68.82626262626263</v>
       </c>
       <c r="B9">
-        <v>0.02338423570170782</v>
+        <v>0.02353520488954543</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>76.31212121212121</v>
+        <v>76.95858585858586</v>
       </c>
       <c r="B10">
-        <v>0.02059863424839797</v>
+        <v>0.02090772965790534</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>84.46363636363637</v>
+        <v>85.09090909090909</v>
       </c>
       <c r="B11">
-        <v>0.01838017024944937</v>
+        <v>0.01879598053660206</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>92.61515151515152</v>
+        <v>93.22323232323232</v>
       </c>
       <c r="B12">
-        <v>0.01657386056315019</v>
+        <v>0.01706267557283618</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>100.7666666666667</v>
+        <v>101.3555555555556</v>
       </c>
       <c r="B13">
-        <v>0.01507613440488666</v>
+        <v>0.01561513681367633</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>108.9181818181818</v>
+        <v>109.4878787878788</v>
       </c>
       <c r="B14">
-        <v>0.01381522088933115</v>
+        <v>0.01438856735038244</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>117.069696969697</v>
+        <v>117.620202020202</v>
       </c>
       <c r="B15">
-        <v>0.01273985853481382</v>
+        <v>0.01333631908322386</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>125.2212121212121</v>
+        <v>125.7525252525253</v>
       </c>
       <c r="B16">
-        <v>0.01181248522189468</v>
+        <v>0.01242396639390322</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>133.3727272727273</v>
+        <v>133.8848484848485</v>
       </c>
       <c r="B17">
-        <v>0.0110049661889153</v>
+        <v>0.0116255569178896</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>141.5242424242424</v>
+        <v>142.0171717171717</v>
       </c>
       <c r="B18">
-        <v>0.01029582284520413</v>
+        <v>0.01092116092753925</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>149.6757575757576</v>
+        <v>150.149494949495</v>
       </c>
       <c r="B19">
-        <v>0.009668382330257075</v>
+        <v>0.0102952236440969</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>157.8272727272727</v>
+        <v>158.2818181818182</v>
       </c>
       <c r="B20">
-        <v>0.009109510257378172</v>
+        <v>0.009735429716742627</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>165.9787878787879</v>
+        <v>166.4141414141414</v>
       </c>
       <c r="B21">
-        <v>0.008608723299044857</v>
+        <v>0.009231903447200695</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>174.1303030303031</v>
+        <v>174.5464646464646</v>
       </c>
       <c r="B22">
-        <v>0.008157555351167444</v>
+        <v>0.008776634488218677</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>182.2818181818182</v>
+        <v>182.6787878787879</v>
       </c>
       <c r="B23">
-        <v>0.007749096741768467</v>
+        <v>0.008363058253235566</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>190.4333333333333</v>
+        <v>190.8111111111111</v>
       </c>
       <c r="B24">
-        <v>0.007377653871993657</v>
+        <v>0.007985744549041576</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>198.5848484848485</v>
+        <v>198.9434343434343</v>
       </c>
       <c r="B25">
-        <v>0.00703849417212341</v>
+        <v>0.007640163239624202</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>206.7363636363636</v>
+        <v>207.0757575757576</v>
       </c>
       <c r="B26">
-        <v>0.006727652473454284</v>
+        <v>0.00732250561017831</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>214.8878787878788</v>
+        <v>215.2080808080808</v>
       </c>
       <c r="B27">
-        <v>0.006441782242645946</v>
+        <v>0.007029546589224229</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>223.039393939394</v>
+        <v>223.3404040404041</v>
       </c>
       <c r="B28">
-        <v>0.006178040027572679</v>
+        <v>0.006758537337583468</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>231.1909090909091</v>
+        <v>231.4727272727273</v>
       </c>
       <c r="B29">
-        <v>0.005933994792896117</v>
+        <v>0.006507120680451912</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>239.3424242424242</v>
+        <v>239.6050505050505</v>
       </c>
       <c r="B30">
-        <v>0.005707556120670657</v>
+        <v>0.006273263914788072</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>247.4939393939394</v>
+        <v>247.7373737373737</v>
       </c>
       <c r="B31">
-        <v>0.005496916859662995</v>
+        <v>0.006055204969392477</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>255.6454545454546</v>
+        <v>255.869696969697</v>
       </c>
       <c r="B32">
-        <v>0.005300506948550499</v>
+        <v>0.0058514089244955</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>263.7969696969697</v>
+        <v>264.0020202020202</v>
       </c>
       <c r="B33">
-        <v>0.005116955958507825</v>
+        <v>0.005660532640093624</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>271.9484848484849</v>
+        <v>272.1343434343434</v>
       </c>
       <c r="B34">
-        <v>0.004945062497147559</v>
+        <v>0.005481395783881224</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>280.1</v>
+        <v>280.2666666666667</v>
       </c>
       <c r="B35">
-        <v>0.004783769054180739</v>
+        <v>0.005312956948981307</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>288.2515151515152</v>
+        <v>288.3989898989899</v>
       </c>
       <c r="B36">
-        <v>0.004632141194668915</v>
+        <v>0.00515429384910049</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>296.4030303030303</v>
+        <v>296.5313131313131</v>
       </c>
       <c r="B37">
-        <v>0.004489350249724179</v>
+        <v>0.005004586802319537</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>304.5545454545455</v>
+        <v>304.6636363636363</v>
       </c>
       <c r="B38">
-        <v>0.00435465883902595</v>
+        <v>0.004863104884291152</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>312.7060606060606</v>
+        <v>312.7959595959596</v>
       </c>
       <c r="B39">
-        <v>0.004227408700230502</v>
+        <v>0.004729194261270134</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>320.8575757575758</v>
+        <v>320.9282828282828</v>
       </c>
       <c r="B40">
-        <v>0.00410701040849813</v>
+        <v>0.004602268313312335</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>329.009090909091</v>
+        <v>329.060606060606</v>
       </c>
       <c r="B41">
-        <v>0.003992934653106176</v>
+        <v>0.004481799235536794</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>337.1606060606061</v>
+        <v>337.1929292929293</v>
       </c>
       <c r="B42">
-        <v>0.003884704803417552</v>
+        <v>0.004367310865969389</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>345.3121212121213</v>
+        <v>345.3252525252525</v>
       </c>
       <c r="B43">
-        <v>0.003781890547734077</v>
+        <v>0.004258372536185058</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>353.4636363636364</v>
+        <v>353.4575757575757</v>
       </c>
       <c r="B44">
-        <v>0.003684102429055109</v>
+        <v>0.004154593778728686</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>361.6151515151516</v>
+        <v>361.589898989899</v>
       </c>
       <c r="B45">
-        <v>0.003590987133938277</v>
+        <v>0.004055619755368546</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>369.7666666666667</v>
+        <v>369.7222222222222</v>
       </c>
       <c r="B46">
-        <v>0.003502223416373482</v>
+        <v>0.003961127294320894</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>377.9181818181819</v>
+        <v>377.8545454545454</v>
       </c>
       <c r="B47">
-        <v>0.003417518559242729</v>
+        <v>0.003870821443975885</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>386.069696969697</v>
+        <v>385.9868686868687</v>
       </c>
       <c r="B48">
-        <v>0.003336605292625337</v>
+        <v>0.003784432466347486</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>394.2212121212122</v>
+        <v>394.1191919191919</v>
       </c>
       <c r="B49">
-        <v>0.003259239101751376</v>
+        <v>0.003701713206230728</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>402.3727272727273</v>
+        <v>402.2515151515152</v>
       </c>
       <c r="B50">
-        <v>0.003185195868449754</v>
+        <v>0.003622436782474554</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>410.5242424242425</v>
+        <v>410.3838383838383</v>
       </c>
       <c r="B51">
-        <v>0.003114269798982932</v>
+        <v>0.003546394556332881</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>418.6757575757576</v>
+        <v>418.5161616161616</v>
       </c>
       <c r="B52">
-        <v>0.003046271598601158</v>
+        <v>0.003473394338905845</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>426.8272727272728</v>
+        <v>426.6484848484848</v>
       </c>
       <c r="B53">
-        <v>0.002981026859295182</v>
+        <v>0.003403258805515847</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>434.978787878788</v>
+        <v>434.7808080808081</v>
       </c>
       <c r="B54">
-        <v>0.002918374632322992</v>
+        <v>0.003335824089707885</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>443.1303030303031</v>
+        <v>442.9131313131313</v>
       </c>
       <c r="B55">
-        <v>0.002858166161328396</v>
+        <v>0.003270938533603003</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>451.2818181818183</v>
+        <v>451.0454545454545</v>
       </c>
       <c r="B56">
-        <v>0.002800263755413291</v>
+        <v>0.003208461574713612</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>459.4333333333334</v>
+        <v>459.1777777777777</v>
       </c>
       <c r="B57">
-        <v>0.0027445397844965</v>
+        <v>0.003148262752167272</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>467.5848484848485</v>
+        <v>467.310101010101</v>
       </c>
       <c r="B58">
-        <v>0.002690875781791052</v>
+        <v>0.00309022081767621</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>475.7363636363637</v>
+        <v>475.4424242424242</v>
       </c>
       <c r="B59">
-        <v>0.002639161640340654</v>
+        <v>0.003034222938610254</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>483.8878787878788</v>
+        <v>483.5747474747474</v>
       </c>
       <c r="B60">
-        <v>0.002589294892341134</v>
+        <v>0.002980163982243562</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>492.039393939394</v>
+        <v>491.7070707070707</v>
       </c>
       <c r="B61">
-        <v>0.00254118006148823</v>
+        <v>0.002927945871701747</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>500.1909090909091</v>
+        <v>499.8393939393939</v>
       </c>
       <c r="B62">
-        <v>0.002494728079883586</v>
+        <v>0.002877477005377666</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>508.3424242424243</v>
+        <v>507.9717171717172</v>
       </c>
       <c r="B63">
-        <v>0.002449855762132678</v>
+        <v>0.002828671732645802</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>516.4939393939394</v>
+        <v>516.1040404040403</v>
       </c>
       <c r="B64">
-        <v>0.00240648533021183</v>
+        <v>0.002781449879615335</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>524.6454545454546</v>
+        <v>524.2363636363636</v>
       </c>
       <c r="B65">
-        <v>0.002364543983491241</v>
+        <v>0.002735736319444319</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>532.7969696969698</v>
+        <v>532.3686868686868</v>
       </c>
       <c r="B66">
-        <v>0.002323963508997881</v>
+        <v>0.002691460582411479</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>540.9484848484849</v>
+        <v>540.50101010101</v>
       </c>
       <c r="B67">
-        <v>0.002284679927603248</v>
+        <v>0.002648556501524354</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>549.1</v>
+        <v>548.6333333333333</v>
       </c>
       <c r="B68">
-        <v>0.002246633172340857</v>
+        <v>0.002606961889946678</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>557.2515151515153</v>
+        <v>556.7656565656565</v>
       </c>
       <c r="B69">
-        <v>0.002209766795508826</v>
+        <v>0.002566618246965211</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>565.4030303030304</v>
+        <v>564.8979797979798</v>
       </c>
       <c r="B70">
-        <v>0.002174027701604268</v>
+        <v>0.002527470489596689</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>573.5545454545455</v>
+        <v>573.030303030303</v>
       </c>
       <c r="B71">
-        <v>0.002139365903476839</v>
+        <v>0.002489466707267035</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>581.7060606060606</v>
+        <v>581.1626262626262</v>
       </c>
       <c r="B72">
-        <v>0.002105734299385887</v>
+        <v>0.002452557937284456</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>589.8575757575759</v>
+        <v>589.2949494949495</v>
       </c>
       <c r="B73">
-        <v>0.0020730884689054</v>
+        <v>0.002416697959081371</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>598.009090909091</v>
+        <v>597.4272727272727</v>
       </c>
       <c r="B74">
-        <v>0.002041386485848325</v>
+        <v>0.002381843105422225</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>606.1606060606061</v>
+        <v>605.559595959596</v>
       </c>
       <c r="B75">
-        <v>0.002010588746581429</v>
+        <v>0.002347952088969245</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>614.3121212121213</v>
+        <v>613.6919191919192</v>
       </c>
       <c r="B76">
-        <v>0.001980657812277263</v>
+        <v>0.00231498584276996</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>622.4636363636364</v>
+        <v>621.8242424242424</v>
       </c>
       <c r="B77">
-        <v>0.001951558263804288</v>
+        <v>0.002282907373381544</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>630.6151515151516</v>
+        <v>629.9565656565657</v>
       </c>
       <c r="B78">
-        <v>0.001923256568092487</v>
+        <v>0.00225168162548074</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>638.7666666666668</v>
+        <v>638.0888888888888</v>
       </c>
       <c r="B79">
-        <v>0.001895720954932214</v>
+        <v>0.002221275356926324</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>646.9181818181819</v>
+        <v>646.221212121212</v>
       </c>
       <c r="B80">
-        <v>0.001868921303270609</v>
+        <v>0.002191657023345785</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>655.069696969697</v>
+        <v>654.3535353535353</v>
       </c>
       <c r="B81">
-        <v>0.001842829036164454</v>
+        <v>0.002162796671410889</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>663.2212121212123</v>
+        <v>662.4858585858585</v>
       </c>
       <c r="B82">
-        <v>0.001817417023632187</v>
+        <v>0.002134665840049385</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>671.3727272727274</v>
+        <v>670.6181818181818</v>
       </c>
       <c r="B83">
-        <v>0.001792659492722489</v>
+        <v>0.002107237468913657</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>679.5242424242425</v>
+        <v>678.750505050505</v>
       </c>
       <c r="B84">
-        <v>0.001768531944183265</v>
+        <v>0.002080485813492712</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>687.6757575757576</v>
+        <v>686.8828282828282</v>
       </c>
       <c r="B85">
-        <v>0.001745011075174163</v>
+        <v>0.002054386366312409</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>695.8272727272728</v>
+        <v>695.0151515151515</v>
       </c>
       <c r="B86">
-        <v>0.001722074707518708</v>
+        <v>0.002028915783721162</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>703.978787878788</v>
+        <v>703.1474747474747</v>
       </c>
       <c r="B87">
-        <v>0.001699701721039487</v>
+        <v>0.00200405181780522</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>712.1303030303031</v>
+        <v>711.279797979798</v>
       </c>
       <c r="B88">
-        <v>0.001677871991562261</v>
+        <v>0.001979773253019607</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>720.2818181818183</v>
+        <v>719.4121212121212</v>
       </c>
       <c r="B89">
-        <v>0.001656566333212891</v>
+        <v>0.001956059847158515</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>728.4333333333334</v>
+        <v>727.5444444444444</v>
       </c>
       <c r="B90">
-        <v>0.001635766444665167</v>
+        <v>0.001932892276322811</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>736.5848484848485</v>
+        <v>735.6767676767677</v>
       </c>
       <c r="B91">
-        <v>0.001615454859028306</v>
+        <v>0.001910252083572831</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>744.7363636363638</v>
+        <v>743.8090909090909</v>
       </c>
       <c r="B92">
-        <v>0.001595614897090567</v>
+        <v>0.001888121630982088</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>752.8878787878789</v>
+        <v>751.9414141414142</v>
       </c>
       <c r="B93">
-        <v>0.001576230623660326</v>
+        <v>0.001866484054832298</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>761.039393939394</v>
+        <v>760.0737373737373</v>
       </c>
       <c r="B94">
-        <v>0.001557286806768476</v>
+        <v>0.001845323223712523</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>769.1909090909091</v>
+        <v>768.2060606060605</v>
       </c>
       <c r="B95">
-        <v>0.001538768879516276</v>
+        <v>0.001824623699305458</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>777.3424242424244</v>
+        <v>776.3383838383838</v>
       </c>
       <c r="B96">
-        <v>0.001520662904371229</v>
+        <v>0.001804370699662181</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>785.4939393939395</v>
+        <v>784.470707070707</v>
       </c>
       <c r="B97">
-        <v>0.001502955539730105</v>
+        <v>0.00178455006478332</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>793.6454545454546</v>
+        <v>792.6030303030303</v>
       </c>
       <c r="B98">
-        <v>0.0014856340085834</v>
+        <v>0.0017651482243396</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>801.7969696969698</v>
+        <v>800.7353535353535</v>
       </c>
       <c r="B99">
-        <v>0.001468686069129111</v>
+        <v>0.001746152167378434</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>809.9484848484849</v>
+        <v>808.8676767676767</v>
       </c>
       <c r="B100">
-        <v>0.001452099987196219</v>
+        <v>0.00172754941387562</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>818.1</v>
+        <v>817</v>
       </c>
       <c r="B101">
-        <v>0.001435864510349483</v>
+        <v>0.001709327988002532</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/sgt_files/InVitroBioFilm_SGT_scaling.xlsx
+++ b/datasets/sgt_files/InVitroBioFilm_SGT_scaling.xlsx
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+  <si>
+    <t>kernel-dim</t>
+  </si>
   <si>
     <t>x-avg</t>
   </si>
@@ -403,13 +406,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,258 +434,294 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
-        <v>11.9</v>
+        <v>62</v>
       </c>
       <c r="B2">
-        <v>1.345362404707371</v>
+        <v>12.1</v>
       </c>
       <c r="C2">
-        <v>8.6</v>
+        <v>1.12989675044522</v>
       </c>
       <c r="D2">
-        <v>1.284090685617215</v>
+        <v>0.113967</v>
       </c>
       <c r="E2">
-        <v>1.075546961392531</v>
+        <v>0.0111726845525644</v>
       </c>
       <c r="F2">
-        <v>0.9344984512435677</v>
+        <v>1.08278537031645</v>
       </c>
       <c r="G2">
-        <v>0.9402403879769228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.9432208836866045</v>
+      </c>
+      <c r="H2">
+        <v>-0.928579184308906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
-        <v>37.7</v>
+        <v>125</v>
       </c>
       <c r="B3">
-        <v>1.633333333333333</v>
+        <v>39.5</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>1.796601730428249</v>
       </c>
       <c r="D3">
-        <v>2.144761058952722</v>
+        <v>0.039636</v>
       </c>
       <c r="E3">
-        <v>1.576341350205793</v>
+        <v>0.002826119915675514</v>
       </c>
       <c r="F3">
-        <v>1.462397997898956</v>
+        <v>1.59659709562646</v>
       </c>
       <c r="G3">
-        <v>1.46664151410671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-1.401910180260961</v>
+      </c>
+      <c r="H3">
+        <v>-1.410745692789158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
-        <v>78.8</v>
+        <v>188</v>
       </c>
       <c r="B4">
-        <v>2.731706833139716</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="C4">
-        <v>61.3</v>
+        <v>3.572891763761611</v>
       </c>
       <c r="D4">
-        <v>5.901129835322498</v>
+        <v>0.019578</v>
       </c>
       <c r="E4">
-        <v>1.896526217489555</v>
+        <v>0.001783419810987369</v>
       </c>
       <c r="F4">
-        <v>1.787460474518415</v>
+        <v>1.903632516084238</v>
       </c>
       <c r="G4">
-        <v>1.803198149869531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-1.708231675828481</v>
+      </c>
+      <c r="H4">
+        <v>-1.698871069010518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
-        <v>125.4</v>
+        <v>251</v>
       </c>
       <c r="B5">
-        <v>1.528979325490629</v>
+        <v>137.2</v>
       </c>
       <c r="C5">
-        <v>111.1</v>
+        <v>4.304519588628781</v>
       </c>
       <c r="D5">
-        <v>4.269920634183054</v>
+        <v>0.012534</v>
       </c>
       <c r="E5">
-        <v>2.098297536494698</v>
+        <v>0.0009046155721262668</v>
       </c>
       <c r="F5">
-        <v>2.045714058940868</v>
+        <v>2.137354111370733</v>
       </c>
       <c r="G5">
-        <v>2.015286487753453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>-1.901910309636048</v>
+      </c>
+      <c r="H5">
+        <v>-1.918197954724794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
-        <v>204.4</v>
+        <v>314</v>
       </c>
       <c r="B6">
-        <v>4.13440846232364</v>
+        <v>203.4</v>
       </c>
       <c r="C6">
-        <v>183.2</v>
+        <v>4.77772609791171</v>
       </c>
       <c r="D6">
-        <v>5.801915392542554</v>
+        <v>0.008934000000000001</v>
       </c>
       <c r="E6">
-        <v>2.310480891462675</v>
+        <v>0.000431483745026649</v>
       </c>
       <c r="F6">
-        <v>2.262925469331832</v>
+        <v>2.308350948586726</v>
       </c>
       <c r="G6">
-        <v>2.238319252289456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-2.04895405186418</v>
+      </c>
+      <c r="H6">
+        <v>-2.07866324560903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
-        <v>290.6</v>
+        <v>376</v>
       </c>
       <c r="B7">
-        <v>4.487513540679045</v>
+        <v>290.4</v>
       </c>
       <c r="C7">
-        <v>230.3</v>
+        <v>4.742713709821976</v>
       </c>
       <c r="D7">
-        <v>7.449161026585477</v>
+        <v>0.005514</v>
       </c>
       <c r="E7">
-        <v>2.463295609962003</v>
+        <v>0.0003042593922589372</v>
       </c>
       <c r="F7">
-        <v>2.362293937964231</v>
+        <v>2.462996612028056</v>
       </c>
       <c r="G7">
-        <v>2.398947729173705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-2.258533238230245</v>
+      </c>
+      <c r="H7">
+        <v>-2.22378441727581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
-        <v>389.3</v>
+        <v>439</v>
       </c>
       <c r="B8">
-        <v>4.887739763939974</v>
+        <v>397.9</v>
       </c>
       <c r="C8">
-        <v>330.3</v>
+        <v>4.958606435055898</v>
       </c>
       <c r="D8">
-        <v>12.88672874618604</v>
+        <v>0.004329999999999999</v>
       </c>
       <c r="E8">
-        <v>2.590284403718162</v>
+        <v>0.0001732114956410868</v>
       </c>
       <c r="F8">
-        <v>2.518908573691414</v>
+        <v>2.599773939146388</v>
       </c>
       <c r="G8">
-        <v>2.532429744013196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-2.363512103646635</v>
+      </c>
+      <c r="H8">
+        <v>-2.352137747897287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
-        <v>518.1</v>
+        <v>502</v>
       </c>
       <c r="B9">
-        <v>6.563281699475246</v>
+        <v>515.9</v>
       </c>
       <c r="C9">
-        <v>420.3</v>
+        <v>5.700779673771728</v>
       </c>
       <c r="D9">
-        <v>11.81246987062589</v>
+        <v>0.003257</v>
       </c>
       <c r="E9">
-        <v>2.714413592287121</v>
+        <v>0.0001395711686241507</v>
       </c>
       <c r="F9">
-        <v>2.623559390005437</v>
+        <v>2.712565527873308</v>
       </c>
       <c r="G9">
-        <v>2.662905935655674</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-2.487182241435127</v>
+      </c>
+      <c r="H9">
+        <v>-2.457982600872541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
-        <v>658.6</v>
+        <v>565</v>
       </c>
       <c r="B10">
-        <v>9.318082778483278</v>
+        <v>667</v>
       </c>
       <c r="C10">
-        <v>562.6</v>
+        <v>4.695151163109069</v>
       </c>
       <c r="D10">
-        <v>12.02331069215131</v>
+        <v>0.002504999999999999</v>
       </c>
       <c r="E10">
-        <v>2.818621726375889</v>
+        <v>7.528095524249295E-05</v>
       </c>
       <c r="F10">
-        <v>2.750199727829182</v>
+        <v>2.824125833916549</v>
       </c>
       <c r="G10">
-        <v>2.772442464741398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-2.601192269796736</v>
+      </c>
+      <c r="H10">
+        <v>-2.56267200479263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
-        <v>817</v>
+        <v>628</v>
       </c>
       <c r="B11">
-        <v>8.299933065325822</v>
+        <v>811.5</v>
       </c>
       <c r="C11">
-        <v>701.1</v>
+        <v>8.364275886836296</v>
       </c>
       <c r="D11">
-        <v>11.38463877336475</v>
+        <v>0.002171</v>
       </c>
       <c r="E11">
-        <v>2.912222056532416</v>
+        <v>6.04510821518799E-05</v>
       </c>
       <c r="F11">
-        <v>2.84577996711189</v>
+        <v>2.909288524162251</v>
       </c>
       <c r="G11">
-        <v>2.87082878915145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-2.66334017654558</v>
+      </c>
+      <c r="H11">
+        <v>-2.642589599089996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
+        <v>638</v>
+      </c>
+      <c r="B12">
         <v>496</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>563</v>
-      </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.004589999999999999</v>
       </c>
       <c r="E12">
+        <v>2.891205793294678E-19</v>
+      </c>
+      <c r="F12">
         <v>2.695481676490198</v>
       </c>
-      <c r="F12">
-        <v>2.750508394851346</v>
-      </c>
       <c r="G12">
-        <v>2.643005988655647</v>
+        <v>-2.338187314462739</v>
+      </c>
+      <c r="H12">
+        <v>-2.441950929022662</v>
       </c>
     </row>
   </sheetData>
@@ -700,810 +739,810 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="B2">
-        <v>11.53329490015203</v>
+        <v>0.114118894657337</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>20.03232323232323</v>
+        <v>20.17474747474747</v>
       </c>
       <c r="B3">
-        <v>19.17535974889559</v>
+        <v>0.07153840198621657</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>28.16464646464647</v>
+        <v>28.24949494949495</v>
       </c>
       <c r="B4">
-        <v>26.74160821203446</v>
+        <v>0.05259964516128546</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>36.2969696969697</v>
+        <v>36.32424242424242</v>
       </c>
       <c r="B5">
-        <v>34.25517998973264</v>
+        <v>0.04180625295572488</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>44.42929292929293</v>
+        <v>44.3989898989899</v>
       </c>
       <c r="B6">
-        <v>41.72836626881682</v>
+        <v>0.03480208572938091</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>52.56161616161616</v>
+        <v>52.47373737373737</v>
       </c>
       <c r="B7">
-        <v>49.16881501243679</v>
+        <v>0.02987537705570119</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>60.6939393939394</v>
+        <v>60.54848484848484</v>
       </c>
       <c r="B8">
-        <v>56.58174841161382</v>
+        <v>0.02621373526820083</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>68.82626262626263</v>
+        <v>68.62323232323232</v>
       </c>
       <c r="B9">
-        <v>63.97095969599865</v>
+        <v>0.02338103360402072</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>76.95858585858586</v>
+        <v>76.69797979797978</v>
       </c>
       <c r="B10">
-        <v>71.33932896396621</v>
+        <v>0.02112174936903392</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>85.09090909090909</v>
+        <v>84.77272727272725</v>
       </c>
       <c r="B11">
-        <v>78.68911724290442</v>
+        <v>0.01927604335909764</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>93.22323232323232</v>
+        <v>92.84747474747473</v>
       </c>
       <c r="B12">
-        <v>86.02214649100083</v>
+        <v>0.01773870091217781</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>101.3555555555556</v>
+        <v>100.9222222222222</v>
       </c>
       <c r="B13">
-        <v>93.33991598258662</v>
+        <v>0.01643757540808223</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>109.4878787878788</v>
+        <v>108.9969696969697</v>
       </c>
       <c r="B14">
-        <v>100.6436809089506</v>
+        <v>0.01532150915408134</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>117.620202020202</v>
+        <v>117.0717171717172</v>
       </c>
       <c r="B15">
-        <v>107.93450737939</v>
+        <v>0.01435319723341663</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>125.7525252525253</v>
+        <v>125.1464646464646</v>
       </c>
       <c r="B16">
-        <v>115.2133120614473</v>
+        <v>0.0135047825124472</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>133.8848484848485</v>
+        <v>133.2212121212121</v>
       </c>
       <c r="B17">
-        <v>122.4808914723075</v>
+        <v>0.01275503402534345</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>142.0171717171717</v>
+        <v>141.2959595959596</v>
       </c>
       <c r="B18">
-        <v>129.737944090963</v>
+        <v>0.01208748145851442</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>150.149494949495</v>
+        <v>149.3707070707071</v>
       </c>
       <c r="B19">
-        <v>136.9850873630349</v>
+        <v>0.01148914749613198</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>158.2818181818182</v>
+        <v>157.4454545454545</v>
       </c>
       <c r="B20">
-        <v>144.2228709918053</v>
+        <v>0.01094966553484734</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>166.4141414141414</v>
+        <v>165.520202020202</v>
       </c>
       <c r="B21">
-        <v>151.4517874763915</v>
+        <v>0.01046065249826879</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>174.5464646464646</v>
+        <v>173.5949494949495</v>
       </c>
       <c r="B22">
-        <v>158.6722805743542</v>
+        <v>0.01001525453838841</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>182.6787878787879</v>
+        <v>181.6696969696969</v>
       </c>
       <c r="B23">
-        <v>165.8847521754888</v>
+        <v>0.009607812388484292</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>190.8111111111111</v>
+        <v>189.7444444444444</v>
       </c>
       <c r="B24">
-        <v>173.0895679427375</v>
+        <v>0.009233611095551531</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>198.9434343434343</v>
+        <v>197.8191919191919</v>
       </c>
       <c r="B25">
-        <v>180.2870619846039</v>
+        <v>0.008888690275485224</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>207.0757575757576</v>
+        <v>205.8939393939393</v>
       </c>
       <c r="B26">
-        <v>187.4775407582362</v>
+        <v>0.00856969845168928</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>215.2080808080808</v>
+        <v>213.9686868686868</v>
       </c>
       <c r="B27">
-        <v>194.6612863551547</v>
+        <v>0.008273779955781664</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>223.3404040404041</v>
+        <v>222.0434343434343</v>
       </c>
       <c r="B28">
-        <v>201.8385592869551</v>
+        <v>0.007998486190224757</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>231.4727272727273</v>
+        <v>230.1181818181818</v>
       </c>
       <c r="B29">
-        <v>209.0096008625501</v>
+        <v>0.007741705333417221</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>239.6050505050505</v>
+        <v>238.1929292929293</v>
       </c>
       <c r="B30">
-        <v>216.1746352291121</v>
+        <v>0.007501606158254927</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>247.7373737373737</v>
+        <v>246.2676767676767</v>
       </c>
       <c r="B31">
-        <v>223.3338711341068</v>
+        <v>0.007276592760105602</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>255.869696969697</v>
+        <v>254.3424242424242</v>
       </c>
       <c r="B32">
-        <v>230.4875034544522</v>
+        <v>0.007065267796277352</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>264.0020202020202</v>
+        <v>262.4171717171717</v>
       </c>
       <c r="B33">
-        <v>237.6357145300106</v>
+        <v>0.006866402423782412</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>272.1343434343434</v>
+        <v>270.4919191919192</v>
       </c>
       <c r="B34">
-        <v>244.7786753317172</v>
+        <v>0.006678911551119365</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>280.2666666666667</v>
+        <v>278.5666666666667</v>
       </c>
       <c r="B35">
-        <v>251.9165464891828</v>
+        <v>0.006501833337750171</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>288.3989898989899</v>
+        <v>286.6414141414141</v>
       </c>
       <c r="B36">
-        <v>259.0494791982699</v>
+        <v>0.006334312112962199</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>296.5313131313131</v>
+        <v>294.7161616161616</v>
       </c>
       <c r="B37">
-        <v>266.1776160256525</v>
+        <v>0.006175584065620148</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>304.6636363636363</v>
+        <v>302.7909090909091</v>
       </c>
       <c r="B38">
-        <v>273.3010916245614</v>
+        <v>0.006024965193333106</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>312.7959595959596</v>
+        <v>310.8656565656565</v>
       </c>
       <c r="B39">
-        <v>280.4200333736278</v>
+        <v>0.005881841104820782</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>320.9282828282828</v>
+        <v>318.940404040404</v>
       </c>
       <c r="B40">
-        <v>287.5345619488772</v>
+        <v>0.005745658350741072</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>329.060606060606</v>
+        <v>327.0151515151515</v>
       </c>
       <c r="B41">
-        <v>294.6447918373839</v>
+        <v>0.005615917021766245</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>337.1929292929293</v>
+        <v>335.089898989899</v>
       </c>
       <c r="B42">
-        <v>301.7508317998337</v>
+        <v>0.005492164402560705</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>345.3252525252525</v>
+        <v>343.1646464646465</v>
       </c>
       <c r="B43">
-        <v>308.8527852881869</v>
+        <v>0.005373989509709177</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>353.4575757575757</v>
+        <v>351.2393939393939</v>
       </c>
       <c r="B44">
-        <v>315.9507508237555</v>
+        <v>0.005261018372958773</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>361.589898989899</v>
+        <v>359.3141414141414</v>
       </c>
       <c r="B45">
-        <v>323.044822340271</v>
+        <v>0.005152909944174143</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>369.7222222222222</v>
+        <v>367.3888888888889</v>
       </c>
       <c r="B46">
-        <v>330.1350894959003</v>
+        <v>0.005049352538531013</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>377.8545454545454</v>
+        <v>375.4636363636363</v>
       </c>
       <c r="B47">
-        <v>337.2216379576412</v>
+        <v>0.004950060728737752</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>385.9868686868687</v>
+        <v>383.5383838383838</v>
       </c>
       <c r="B48">
-        <v>344.3045496610847</v>
+        <v>0.004854772626283929</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>394.1191919191919</v>
+        <v>391.6131313131313</v>
       </c>
       <c r="B49">
-        <v>351.3839030481529</v>
+        <v>0.004763247494494139</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>402.2515151515152</v>
+        <v>399.6878787878787</v>
       </c>
       <c r="B50">
-        <v>358.4597732850949</v>
+        <v>0.004675263647001852</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>410.3838383838383</v>
+        <v>407.7626262626262</v>
       </c>
       <c r="B51">
-        <v>365.5322324627465</v>
+        <v>0.004590616592533375</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>418.5161616161616</v>
+        <v>415.8373737373737</v>
       </c>
       <c r="B52">
-        <v>372.6013497808208</v>
+        <v>0.004509117392907075</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>426.6484848484848</v>
+        <v>423.9121212121212</v>
       </c>
       <c r="B53">
-        <v>379.667191717787</v>
+        <v>0.004430591206145848</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>434.7808080808081</v>
+        <v>431.9868686868687</v>
       </c>
       <c r="B54">
-        <v>386.7298221877192</v>
+        <v>0.004354875990761184</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>442.9131313131313</v>
+        <v>440.0616161616161</v>
       </c>
       <c r="B55">
-        <v>393.7893026853394</v>
+        <v>0.004281821350746441</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>451.0454545454545</v>
+        <v>448.1363636363636</v>
       </c>
       <c r="B56">
-        <v>400.8456924203433</v>
+        <v>0.004211287503737038</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>459.1777777777777</v>
+        <v>456.2111111111111</v>
       </c>
       <c r="B57">
-        <v>407.8990484419801</v>
+        <v>0.00414314435725427</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>467.310101010101</v>
+        <v>464.2858585858585</v>
       </c>
       <c r="B58">
-        <v>414.9494257547545</v>
+        <v>0.00407727068002698</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>475.4424242424242</v>
+        <v>472.360606060606</v>
       </c>
       <c r="B59">
-        <v>421.9968774260248</v>
+        <v>0.004013553357146009</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>483.5747474747474</v>
+        <v>480.4353535353535</v>
       </c>
       <c r="B60">
-        <v>429.0414546861965</v>
+        <v>0.003951886719303136</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>491.7070707070707</v>
+        <v>488.510101010101</v>
       </c>
       <c r="B61">
-        <v>436.0832070221346</v>
+        <v>0.003892171937642248</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>499.8393939393939</v>
+        <v>496.5848484848485</v>
       </c>
       <c r="B62">
-        <v>443.1221822643595</v>
+        <v>0.003834316476841483</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>507.9717171717172</v>
+        <v>504.6595959595959</v>
       </c>
       <c r="B63">
-        <v>450.158426668534</v>
+        <v>0.003778233599980349</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>516.1040404040403</v>
+        <v>512.7343434343434</v>
       </c>
       <c r="B64">
-        <v>457.1919849917008</v>
+        <v>0.003723841919549707</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>524.2363636363636</v>
+        <v>520.8090909090909</v>
       </c>
       <c r="B65">
-        <v>464.2229005636867</v>
+        <v>0.003671064989655256</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>532.3686868686868</v>
+        <v>528.8838383838383</v>
       </c>
       <c r="B66">
-        <v>471.2512153540482</v>
+        <v>0.003619830935063521</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>540.50101010101</v>
+        <v>536.9585858585858</v>
       </c>
       <c r="B67">
-        <v>478.2769700349036</v>
+        <v>0.003570072113257467</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>548.6333333333333</v>
+        <v>545.0333333333333</v>
       </c>
       <c r="B68">
-        <v>485.3002040399605</v>
+        <v>0.003521724806118537</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>556.7656565656565</v>
+        <v>553.1080808080808</v>
       </c>
       <c r="B69">
-        <v>492.3209556200219</v>
+        <v>0.003474728938243024</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>564.8979797979798</v>
+        <v>561.1828282828283</v>
       </c>
       <c r="B70">
-        <v>499.3392618952312</v>
+        <v>0.003429027819241569</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>573.030303030303</v>
+        <v>569.2575757575758</v>
       </c>
       <c r="B71">
-        <v>506.3551589042891</v>
+        <v>0.003384567907668399</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>581.1626262626262</v>
+        <v>577.3323232323232</v>
       </c>
       <c r="B72">
-        <v>513.3686816508622</v>
+        <v>0.003341298594487549</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>589.2949494949495</v>
+        <v>585.4070707070706</v>
       </c>
       <c r="B73">
-        <v>520.3798641473762</v>
+        <v>0.00329917200421184</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>597.4272727272727</v>
+        <v>593.4818181818181</v>
       </c>
       <c r="B74">
-        <v>527.3887394563787</v>
+        <v>0.003258142812051314</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>605.559595959596</v>
+        <v>601.5565656565656</v>
       </c>
       <c r="B75">
-        <v>534.3953397296362</v>
+        <v>0.003218168075584502</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>613.6919191919192</v>
+        <v>609.631313131313</v>
       </c>
       <c r="B76">
-        <v>541.3996962451176</v>
+        <v>0.003179207079621927</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>621.8242424242424</v>
+        <v>617.7060606060605</v>
       </c>
       <c r="B77">
-        <v>548.401839442007</v>
+        <v>0.003141221193068869</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>629.9565656565657</v>
+        <v>625.780808080808</v>
       </c>
       <c r="B78">
-        <v>555.4017989538729</v>
+        <v>0.003104173736716384</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>638.0888888888888</v>
+        <v>633.8555555555555</v>
       </c>
       <c r="B79">
-        <v>562.3996036401149</v>
+        <v>0.003068029860997553</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>646.221212121212</v>
+        <v>641.930303030303</v>
       </c>
       <c r="B80">
-        <v>569.3952816157978</v>
+        <v>0.003032756432841862</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>654.3535353535353</v>
+        <v>650.0050505050505</v>
       </c>
       <c r="B81">
-        <v>576.3888602799744</v>
+        <v>0.002998321930845916</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>662.4858585858585</v>
+        <v>658.0797979797979</v>
       </c>
       <c r="B82">
-        <v>583.3803663425931</v>
+        <v>0.002964696348054624</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>670.6181818181818</v>
+        <v>666.1545454545454</v>
       </c>
       <c r="B83">
-        <v>590.3698258500751</v>
+        <v>0.002931851101714743</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>678.750505050505</v>
+        <v>674.2292929292929</v>
       </c>
       <c r="B84">
-        <v>597.3572642096444</v>
+        <v>0.002899758949423204</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>686.8828282828282</v>
+        <v>682.3040404040404</v>
       </c>
       <c r="B85">
-        <v>604.3427062124849</v>
+        <v>0.002868393911146696</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>695.0151515151515</v>
+        <v>690.3787878787878</v>
       </c>
       <c r="B86">
-        <v>611.3261760557937</v>
+        <v>0.002837731196637552</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>703.1474747474747</v>
+        <v>698.4535353535352</v>
       </c>
       <c r="B87">
-        <v>618.3076973637967</v>
+        <v>0.002807747137814382</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>711.279797979798</v>
+        <v>706.5282828282827</v>
       </c>
       <c r="B88">
-        <v>625.2872932077858</v>
+        <v>0.002778419125714995</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>719.4121212121212</v>
+        <v>714.6030303030302</v>
       </c>
       <c r="B89">
-        <v>632.2649861252343</v>
+        <v>0.002749725551664224</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>727.5444444444444</v>
+        <v>722.6777777777777</v>
       </c>
       <c r="B90">
-        <v>639.2407981380436</v>
+        <v>0.002721645752330935</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>735.6767676767677</v>
+        <v>730.7525252525252</v>
       </c>
       <c r="B91">
-        <v>646.2147507699681</v>
+        <v>0.00269415995837694</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>743.8090909090909</v>
+        <v>738.8272727272727</v>
       </c>
       <c r="B92">
-        <v>653.1868650632653</v>
+        <v>0.002667249246426297</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>751.9414141414142</v>
+        <v>746.9020202020201</v>
       </c>
       <c r="B93">
-        <v>660.1571615946145</v>
+        <v>0.00264089549410671</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>760.0737373737373</v>
+        <v>754.9767676767676</v>
       </c>
       <c r="B94">
-        <v>667.125660490341</v>
+        <v>0.002615081337935753</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>768.2060606060605</v>
+        <v>763.0515151515151</v>
       </c>
       <c r="B95">
-        <v>674.0923814409869</v>
+        <v>0.002589790133843706</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>776.3383838383838</v>
+        <v>771.1262626262626</v>
       </c>
       <c r="B96">
-        <v>681.057343715259</v>
+        <v>0.002565005920142038</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>784.470707070707</v>
+        <v>779.2010101010101</v>
       </c>
       <c r="B97">
-        <v>688.0205661733909</v>
+        <v>0.002540713382762229</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>792.6030303030303</v>
+        <v>787.2757575757574</v>
       </c>
       <c r="B98">
-        <v>694.9820672799465</v>
+        <v>0.002516897822603894</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>800.7353535353535</v>
+        <v>795.3505050505049</v>
       </c>
       <c r="B99">
-        <v>701.9418651160945</v>
+        <v>0.002493545124844073</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>808.8676767676767</v>
+        <v>803.4252525252524</v>
       </c>
       <c r="B100">
-        <v>708.8999773913837</v>
+        <v>0.002470641730071381</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>817</v>
+        <v>811.5</v>
       </c>
       <c r="B101">
-        <v>715.8564214550388</v>
+        <v>0.002448174607119392</v>
       </c>
     </row>
   </sheetData>
@@ -1513,13 +1552,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1541,258 +1580,294 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
-        <v>11.9</v>
+        <v>62</v>
       </c>
       <c r="B2">
-        <v>1.345362404707371</v>
+        <v>12.1</v>
       </c>
       <c r="C2">
-        <v>1.410798</v>
+        <v>1.12989675044522</v>
       </c>
       <c r="D2">
-        <v>0.1262844054487946</v>
+        <v>0.113967</v>
       </c>
       <c r="E2">
-        <v>1.075546961392531</v>
+        <v>0.0111726845525644</v>
       </c>
       <c r="F2">
-        <v>0.1494648353237909</v>
+        <v>1.08278537031645</v>
       </c>
       <c r="G2">
-        <v>0.1587913879138593</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.9432208836866045</v>
+      </c>
+      <c r="H2">
+        <v>-0.928579184308906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
-        <v>37.7</v>
+        <v>125</v>
       </c>
       <c r="B3">
-        <v>1.633333333333333</v>
+        <v>39.5</v>
       </c>
       <c r="C3">
-        <v>1.533037</v>
+        <v>1.796601730428249</v>
       </c>
       <c r="D3">
-        <v>0.08404640928346936</v>
+        <v>0.039636</v>
       </c>
       <c r="E3">
-        <v>1.576341350205793</v>
+        <v>0.002826119915675514</v>
       </c>
       <c r="F3">
-        <v>0.1855526367212484</v>
+        <v>1.59659709562646</v>
       </c>
       <c r="G3">
-        <v>0.1870105216986532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-1.401910180260961</v>
+      </c>
+      <c r="H3">
+        <v>-1.410745692789158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
-        <v>78.8</v>
+        <v>188</v>
       </c>
       <c r="B4">
-        <v>2.731706833139716</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="C4">
-        <v>1.545694</v>
+        <v>3.572891763761611</v>
       </c>
       <c r="D4">
-        <v>0.1167062390620142</v>
+        <v>0.019578</v>
       </c>
       <c r="E4">
-        <v>1.896526217489555</v>
+        <v>0.001783419810987369</v>
       </c>
       <c r="F4">
-        <v>0.1891235211055446</v>
+        <v>1.903632516084238</v>
       </c>
       <c r="G4">
-        <v>0.2050525361612315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-1.708231675828481</v>
+      </c>
+      <c r="H4">
+        <v>-1.698871069010518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
-        <v>125.4</v>
+        <v>251</v>
       </c>
       <c r="B5">
-        <v>1.528979325490629</v>
+        <v>137.2</v>
       </c>
       <c r="C5">
-        <v>1.772188</v>
+        <v>4.304519588628781</v>
       </c>
       <c r="D5">
-        <v>0.06372116163061967</v>
+        <v>0.012534</v>
       </c>
       <c r="E5">
-        <v>2.098297536494698</v>
+        <v>0.0009046155721262668</v>
       </c>
       <c r="F5">
-        <v>0.2485097914966998</v>
+        <v>2.137354111370733</v>
       </c>
       <c r="G5">
-        <v>0.2164220961485811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>-1.901910309636048</v>
+      </c>
+      <c r="H5">
+        <v>-1.918197954724794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
-        <v>204.4</v>
+        <v>314</v>
       </c>
       <c r="B6">
-        <v>4.13440846232364</v>
+        <v>203.4</v>
       </c>
       <c r="C6">
-        <v>1.801775</v>
+        <v>4.77772609791171</v>
       </c>
       <c r="D6">
-        <v>0.07252252764562961</v>
+        <v>0.008934000000000001</v>
       </c>
       <c r="E6">
-        <v>2.310480891462675</v>
+        <v>0.000431483745026649</v>
       </c>
       <c r="F6">
-        <v>0.2557005566988577</v>
+        <v>2.308350948586726</v>
       </c>
       <c r="G6">
-        <v>0.2283783612635652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-2.04895405186418</v>
+      </c>
+      <c r="H6">
+        <v>-2.07866324560903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
-        <v>290.6</v>
+        <v>376</v>
       </c>
       <c r="B7">
-        <v>4.487513540679045</v>
+        <v>290.4</v>
       </c>
       <c r="C7">
-        <v>1.588418</v>
+        <v>4.742713709821976</v>
       </c>
       <c r="D7">
-        <v>0.05741524245548583</v>
+        <v>0.005514</v>
       </c>
       <c r="E7">
-        <v>2.463295609962003</v>
+        <v>0.0003042593922589372</v>
       </c>
       <c r="F7">
-        <v>0.2009647998577111</v>
+        <v>2.462996612028056</v>
       </c>
       <c r="G7">
-        <v>0.2369892784023075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-2.258533238230245</v>
+      </c>
+      <c r="H7">
+        <v>-2.22378441727581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
-        <v>389.3</v>
+        <v>439</v>
       </c>
       <c r="B8">
-        <v>4.887739763939974</v>
+        <v>397.9</v>
       </c>
       <c r="C8">
-        <v>1.70431</v>
+        <v>4.958606435055898</v>
       </c>
       <c r="D8">
-        <v>0.082260099562303</v>
+        <v>0.004329999999999999</v>
       </c>
       <c r="E8">
-        <v>2.590284403718162</v>
+        <v>0.0001732114956410868</v>
       </c>
       <c r="F8">
-        <v>0.2315485922173505</v>
+        <v>2.599773939146388</v>
       </c>
       <c r="G8">
-        <v>0.2441449371721004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-2.363512103646635</v>
+      </c>
+      <c r="H8">
+        <v>-2.352137747897287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
-        <v>518.1</v>
+        <v>502</v>
       </c>
       <c r="B9">
-        <v>6.563281699475246</v>
+        <v>515.9</v>
       </c>
       <c r="C9">
-        <v>1.626741</v>
+        <v>5.700779673771728</v>
       </c>
       <c r="D9">
-        <v>0.0578871389755771</v>
+        <v>0.003257</v>
       </c>
       <c r="E9">
-        <v>2.714413592287121</v>
+        <v>0.0001395711686241507</v>
       </c>
       <c r="F9">
-        <v>0.2113184126635239</v>
+        <v>2.712565527873308</v>
       </c>
       <c r="G9">
-        <v>0.2511394607871233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-2.487182241435127</v>
+      </c>
+      <c r="H9">
+        <v>-2.457982600872541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
-        <v>658.6</v>
+        <v>565</v>
       </c>
       <c r="B10">
-        <v>9.318082778483278</v>
+        <v>667</v>
       </c>
       <c r="C10">
-        <v>1.713368</v>
+        <v>4.695151163109069</v>
       </c>
       <c r="D10">
-        <v>0.05174093665775892</v>
+        <v>0.002504999999999999</v>
       </c>
       <c r="E10">
-        <v>2.818621726375889</v>
+        <v>7.528095524249295E-05</v>
       </c>
       <c r="F10">
-        <v>0.2338506514680618</v>
+        <v>2.824125833916549</v>
       </c>
       <c r="G10">
-        <v>0.2570114580438882</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-2.601192269796736</v>
+      </c>
+      <c r="H10">
+        <v>-2.56267200479263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
-        <v>817</v>
+        <v>628</v>
       </c>
       <c r="B11">
-        <v>8.299933065325822</v>
+        <v>811.5</v>
       </c>
       <c r="C11">
-        <v>1.718732</v>
+        <v>8.364275886836296</v>
       </c>
       <c r="D11">
-        <v>0.03766979629476232</v>
+        <v>0.002171</v>
       </c>
       <c r="E11">
-        <v>2.912222056532416</v>
+        <v>6.04510821518799E-05</v>
       </c>
       <c r="F11">
-        <v>0.2352081629028564</v>
+        <v>2.909288524162251</v>
       </c>
       <c r="G11">
-        <v>0.2622857188942285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-2.66334017654558</v>
+      </c>
+      <c r="H11">
+        <v>-2.642589599089996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
+        <v>638</v>
+      </c>
+      <c r="B12">
         <v>496</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>2.27016</v>
-      </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.004589999999999999</v>
       </c>
       <c r="E12">
+        <v>2.891205793294678E-19</v>
+      </c>
+      <c r="F12">
         <v>2.695481676490198</v>
       </c>
-      <c r="F12">
-        <v>0.3560564671791732</v>
-      </c>
       <c r="G12">
-        <v>0.2500726711492806</v>
+        <v>-2.338187314462739</v>
+      </c>
+      <c r="H12">
+        <v>-2.441950929022662</v>
       </c>
     </row>
   </sheetData>
@@ -1810,810 +1885,810 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="B2">
-        <v>1.447575165001846</v>
+        <v>0.114118894657337</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>20.03232323232323</v>
+        <v>20.17474747474747</v>
       </c>
       <c r="B3">
-        <v>1.490793527168109</v>
+        <v>0.07153840198621657</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>28.16464646464647</v>
+        <v>28.24949494949495</v>
       </c>
       <c r="B4">
-        <v>1.519763403641782</v>
+        <v>0.05259964516128546</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>36.2969696969697</v>
+        <v>36.32424242424242</v>
       </c>
       <c r="B5">
-        <v>1.541696490065472</v>
+        <v>0.04180625295572488</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>44.42929292929293</v>
+        <v>44.3989898989899</v>
       </c>
       <c r="B6">
-        <v>1.559402939079937</v>
+        <v>0.03480208572938091</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>52.56161616161616</v>
+        <v>52.47373737373737</v>
       </c>
       <c r="B7">
-        <v>1.574279455032929</v>
+        <v>0.02987537705570119</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>60.6939393939394</v>
+        <v>60.54848484848484</v>
       </c>
       <c r="B8">
-        <v>1.587124210256446</v>
+        <v>0.02621373526820083</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>68.82626262626263</v>
+        <v>68.62323232323232</v>
       </c>
       <c r="B9">
-        <v>1.598437216937782</v>
+        <v>0.02338103360402072</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>76.95858585858586</v>
+        <v>76.69797979797978</v>
       </c>
       <c r="B10">
-        <v>1.608552885202207</v>
+        <v>0.02112174936903392</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>85.09090909090909</v>
+        <v>84.77272727272725</v>
       </c>
       <c r="B11">
-        <v>1.617706129944206</v>
+        <v>0.01927604335909764</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>93.22323232323232</v>
+        <v>92.84747474747473</v>
       </c>
       <c r="B12">
-        <v>1.626068415622183</v>
+        <v>0.01773870091217781</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>101.3555555555556</v>
+        <v>100.9222222222222</v>
       </c>
       <c r="B13">
-        <v>1.633768799655381</v>
+        <v>0.01643757540808223</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>109.4878787878788</v>
+        <v>108.9969696969697</v>
       </c>
       <c r="B14">
-        <v>1.640906901483526</v>
+        <v>0.01532150915408134</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>117.620202020202</v>
+        <v>117.0717171717172</v>
       </c>
       <c r="B15">
-        <v>1.647561255375935</v>
+        <v>0.01435319723341663</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>125.7525252525253</v>
+        <v>125.1464646464646</v>
       </c>
       <c r="B16">
-        <v>1.653794890527843</v>
+        <v>0.0135047825124472</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>133.8848484848485</v>
+        <v>133.2212121212121</v>
       </c>
       <c r="B17">
-        <v>1.659659175755748</v>
+        <v>0.01275503402534345</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>142.0171717171717</v>
+        <v>141.2959595959596</v>
       </c>
       <c r="B18">
-        <v>1.665196539454405</v>
+        <v>0.01208748145851442</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>150.149494949495</v>
+        <v>149.3707070707071</v>
       </c>
       <c r="B19">
-        <v>1.670442438408028</v>
+        <v>0.01148914749613198</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>158.2818181818182</v>
+        <v>157.4454545454545</v>
       </c>
       <c r="B20">
-        <v>1.675426811716933</v>
+        <v>0.01094966553484734</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>166.4141414141414</v>
+        <v>165.520202020202</v>
       </c>
       <c r="B21">
-        <v>1.68017517363069</v>
+        <v>0.01046065249826879</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>174.5464646464646</v>
+        <v>173.5949494949495</v>
       </c>
       <c r="B22">
-        <v>1.684709447971873</v>
+        <v>0.01001525453838841</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>182.6787878787879</v>
+        <v>181.6696969696969</v>
       </c>
       <c r="B23">
-        <v>1.689048614272976</v>
+        <v>0.009607812388484292</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>190.8111111111111</v>
+        <v>189.7444444444444</v>
       </c>
       <c r="B24">
-        <v>1.693209214485977</v>
+        <v>0.009233611095551531</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>198.9434343434343</v>
+        <v>197.8191919191919</v>
       </c>
       <c r="B25">
-        <v>1.697205754929482</v>
+        <v>0.008888690275485224</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>207.0757575757576</v>
+        <v>205.8939393939393</v>
       </c>
       <c r="B26">
-        <v>1.701051028472715</v>
+        <v>0.00856969845168928</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>215.2080808080808</v>
+        <v>213.9686868686868</v>
       </c>
       <c r="B27">
-        <v>1.704756375254502</v>
+        <v>0.008273779955781664</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>223.3404040404041</v>
+        <v>222.0434343434343</v>
       </c>
       <c r="B28">
-        <v>1.708331895513118</v>
+        <v>0.007998486190224757</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>231.4727272727273</v>
+        <v>230.1181818181818</v>
       </c>
       <c r="B29">
-        <v>1.711786624724964</v>
+        <v>0.007741705333417221</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>239.6050505050505</v>
+        <v>238.1929292929293</v>
       </c>
       <c r="B30">
-        <v>1.715128678800505</v>
+        <v>0.007501606158254927</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>247.7373737373737</v>
+        <v>246.2676767676767</v>
       </c>
       <c r="B31">
-        <v>1.718365375287039</v>
+        <v>0.007276592760105602</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>255.869696969697</v>
+        <v>254.3424242424242</v>
       </c>
       <c r="B32">
-        <v>1.721503335191358</v>
+        <v>0.007065267796277352</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>264.0020202020202</v>
+        <v>262.4171717171717</v>
       </c>
       <c r="B33">
-        <v>1.724548569031556</v>
+        <v>0.006866402423782412</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>272.1343434343434</v>
+        <v>270.4919191919192</v>
       </c>
       <c r="B34">
-        <v>1.727506549965815</v>
+        <v>0.006678911551119365</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>280.2666666666667</v>
+        <v>278.5666666666667</v>
       </c>
       <c r="B35">
-        <v>1.730382276262853</v>
+        <v>0.006501833337750171</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>288.3989898989899</v>
+        <v>286.6414141414141</v>
       </c>
       <c r="B36">
-        <v>1.733180324928357</v>
+        <v>0.006334312112962199</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>296.5313131313131</v>
+        <v>294.7161616161616</v>
       </c>
       <c r="B37">
-        <v>1.735904897950914</v>
+        <v>0.006175584065620148</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>304.6636363636363</v>
+        <v>302.7909090909091</v>
       </c>
       <c r="B38">
-        <v>1.738559862355677</v>
+        <v>0.006024965193333106</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>312.7959595959596</v>
+        <v>310.8656565656565</v>
       </c>
       <c r="B39">
-        <v>1.741148785036396</v>
+        <v>0.005881841104820782</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>320.9282828282828</v>
+        <v>318.940404040404</v>
       </c>
       <c r="B40">
-        <v>1.743674963163253</v>
+        <v>0.005745658350741072</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>329.060606060606</v>
+        <v>327.0151515151515</v>
       </c>
       <c r="B41">
-        <v>1.74614145082523</v>
+        <v>0.005615917021766245</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>337.1929292929293</v>
+        <v>335.089898989899</v>
       </c>
       <c r="B42">
-        <v>1.748551082453944</v>
+        <v>0.005492164402560705</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>345.3252525252525</v>
+        <v>343.1646464646465</v>
       </c>
       <c r="B43">
-        <v>1.750906493485291</v>
+        <v>0.005373989509709177</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>353.4575757575757</v>
+        <v>351.2393939393939</v>
       </c>
       <c r="B44">
-        <v>1.753210138641397</v>
+        <v>0.005261018372958773</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>361.589898989899</v>
+        <v>359.3141414141414</v>
       </c>
       <c r="B45">
-        <v>1.755464308154924</v>
+        <v>0.005152909944174143</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>369.7222222222222</v>
+        <v>367.3888888888889</v>
       </c>
       <c r="B46">
-        <v>1.757671142207975</v>
+        <v>0.005049352538531013</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>377.8545454545454</v>
+        <v>375.4636363636363</v>
       </c>
       <c r="B47">
-        <v>1.759832643816672</v>
+        <v>0.004950060728737752</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>385.9868686868687</v>
+        <v>383.5383838383838</v>
       </c>
       <c r="B48">
-        <v>1.761950690358316</v>
+        <v>0.004854772626283929</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>394.1191919191919</v>
+        <v>391.6131313131313</v>
       </c>
       <c r="B49">
-        <v>1.76402704390946</v>
+        <v>0.004763247494494139</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>402.2515151515152</v>
+        <v>399.6878787878787</v>
       </c>
       <c r="B50">
-        <v>1.766063360539379</v>
+        <v>0.004675263647001852</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>410.3838383838383</v>
+        <v>407.7626262626262</v>
       </c>
       <c r="B51">
-        <v>1.768061198683288</v>
+        <v>0.004590616592533375</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>418.5161616161616</v>
+        <v>415.8373737373737</v>
       </c>
       <c r="B52">
-        <v>1.770022026702724</v>
+        <v>0.004509117392907075</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>426.6484848484848</v>
+        <v>423.9121212121212</v>
       </c>
       <c r="B53">
-        <v>1.771947229726139</v>
+        <v>0.004430591206145848</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>434.7808080808081</v>
+        <v>431.9868686868687</v>
       </c>
       <c r="B54">
-        <v>1.773838115850526</v>
+        <v>0.004354875990761184</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>442.9131313131313</v>
+        <v>440.0616161616161</v>
       </c>
       <c r="B55">
-        <v>1.775695921774533</v>
+        <v>0.004281821350746441</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>451.0454545454545</v>
+        <v>448.1363636363636</v>
       </c>
       <c r="B56">
-        <v>1.777521817924554</v>
+        <v>0.004211287503737038</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>459.1777777777777</v>
+        <v>456.2111111111111</v>
       </c>
       <c r="B57">
-        <v>1.77931691312771</v>
+        <v>0.00414314435725427</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>467.310101010101</v>
+        <v>464.2858585858585</v>
       </c>
       <c r="B58">
-        <v>1.781082258879015</v>
+        <v>0.00407727068002698</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>475.4424242424242</v>
+        <v>472.360606060606</v>
       </c>
       <c r="B59">
-        <v>1.782818853244374</v>
+        <v>0.004013553357146009</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>483.5747474747474</v>
+        <v>480.4353535353535</v>
       </c>
       <c r="B60">
-        <v>1.784527644436137</v>
+        <v>0.003951886719303136</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>491.7070707070707</v>
+        <v>488.510101010101</v>
       </c>
       <c r="B61">
-        <v>1.786209534093701</v>
+        <v>0.003892171937642248</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>499.8393939393939</v>
+        <v>496.5848484848485</v>
       </c>
       <c r="B62">
-        <v>1.787865380297924</v>
+        <v>0.003834316476841483</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>507.9717171717172</v>
+        <v>504.6595959595959</v>
       </c>
       <c r="B63">
-        <v>1.78949600034489</v>
+        <v>0.003778233599980349</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>516.1040404040403</v>
+        <v>512.7343434343434</v>
       </c>
       <c r="B64">
-        <v>1.791102173301784</v>
+        <v>0.003723841919549707</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>524.2363636363636</v>
+        <v>520.8090909090909</v>
       </c>
       <c r="B65">
-        <v>1.792684642365106</v>
+        <v>0.003671064989655256</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>532.3686868686868</v>
+        <v>528.8838383838383</v>
       </c>
       <c r="B66">
-        <v>1.794244117039331</v>
+        <v>0.003619830935063521</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>540.50101010101</v>
+        <v>536.9585858585858</v>
       </c>
       <c r="B67">
-        <v>1.795781275152209</v>
+        <v>0.003570072113257467</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>548.6333333333333</v>
+        <v>545.0333333333333</v>
       </c>
       <c r="B68">
-        <v>1.797296764721203</v>
+        <v>0.003521724806118537</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>556.7656565656565</v>
+        <v>553.1080808080808</v>
       </c>
       <c r="B69">
-        <v>1.798791205684091</v>
+        <v>0.003474728938243024</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>564.8979797979798</v>
+        <v>561.1828282828283</v>
       </c>
       <c r="B70">
-        <v>1.80026519150545</v>
+        <v>0.003429027819241569</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>573.030303030303</v>
+        <v>569.2575757575758</v>
       </c>
       <c r="B71">
-        <v>1.801719290669572</v>
+        <v>0.003384567907668399</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>581.1626262626262</v>
+        <v>577.3323232323232</v>
       </c>
       <c r="B72">
-        <v>1.80315404806932</v>
+        <v>0.003341298594487549</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>589.2949494949495</v>
+        <v>585.4070707070706</v>
       </c>
       <c r="B73">
-        <v>1.804569986299538</v>
+        <v>0.00329917200421184</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>597.4272727272727</v>
+        <v>593.4818181818181</v>
       </c>
       <c r="B74">
-        <v>1.805967606862778</v>
+        <v>0.003258142812051314</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>605.559595959596</v>
+        <v>601.5565656565656</v>
       </c>
       <c r="B75">
-        <v>1.8073473912944</v>
+        <v>0.003218168075584502</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>613.6919191919192</v>
+        <v>609.631313131313</v>
       </c>
       <c r="B76">
-        <v>1.808709802213449</v>
+        <v>0.003179207079621927</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>621.8242424242424</v>
+        <v>617.7060606060605</v>
       </c>
       <c r="B77">
-        <v>1.810055284305105</v>
+        <v>0.003141221193068869</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>629.9565656565657</v>
+        <v>625.780808080808</v>
       </c>
       <c r="B78">
-        <v>1.81138426524</v>
+        <v>0.003104173736716384</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>638.0888888888888</v>
+        <v>633.8555555555555</v>
       </c>
       <c r="B79">
-        <v>1.812697156535217</v>
+        <v>0.003068029860997553</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>646.221212121212</v>
+        <v>641.930303030303</v>
       </c>
       <c r="B80">
-        <v>1.813994354361367</v>
+        <v>0.003032756432841862</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>654.3535353535353</v>
+        <v>650.0050505050505</v>
       </c>
       <c r="B81">
-        <v>1.815276240299737</v>
+        <v>0.002998321930845916</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>662.4858585858585</v>
+        <v>658.0797979797979</v>
       </c>
       <c r="B82">
-        <v>1.816543182053199</v>
+        <v>0.002964696348054624</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>670.6181818181818</v>
+        <v>666.1545454545454</v>
       </c>
       <c r="B83">
-        <v>1.817795534114222</v>
+        <v>0.002931851101714743</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>678.750505050505</v>
+        <v>674.2292929292929</v>
       </c>
       <c r="B84">
-        <v>1.819033638393051</v>
+        <v>0.002899758949423204</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>686.8828282828282</v>
+        <v>682.3040404040404</v>
       </c>
       <c r="B85">
-        <v>1.820257824808903</v>
+        <v>0.002868393911146696</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>695.0151515151515</v>
+        <v>690.3787878787878</v>
       </c>
       <c r="B86">
-        <v>1.821468411846737</v>
+        <v>0.002837731196637552</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>703.1474747474747</v>
+        <v>698.4535353535352</v>
       </c>
       <c r="B87">
-        <v>1.822665707081997</v>
+        <v>0.002807747137814382</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>711.279797979798</v>
+        <v>706.5282828282827</v>
       </c>
       <c r="B88">
-        <v>1.82385000767552</v>
+        <v>0.002778419125714995</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>719.4121212121212</v>
+        <v>714.6030303030302</v>
       </c>
       <c r="B89">
-        <v>1.825021600840604</v>
+        <v>0.002749725551664224</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>727.5444444444444</v>
+        <v>722.6777777777777</v>
       </c>
       <c r="B90">
-        <v>1.826180764284133</v>
+        <v>0.002721645752330935</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>735.6767676767677</v>
+        <v>730.7525252525252</v>
       </c>
       <c r="B91">
-        <v>1.827327766623431</v>
+        <v>0.00269415995837694</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>743.8090909090909</v>
+        <v>738.8272727272727</v>
       </c>
       <c r="B92">
-        <v>1.828462867780472</v>
+        <v>0.002667249246426297</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>751.9414141414142</v>
+        <v>746.9020202020201</v>
       </c>
       <c r="B93">
-        <v>1.829586319354878</v>
+        <v>0.00264089549410671</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>760.0737373737373</v>
+        <v>754.9767676767676</v>
       </c>
       <c r="B94">
-        <v>1.830698364977078</v>
+        <v>0.002615081337935753</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>768.2060606060605</v>
+        <v>763.0515151515151</v>
       </c>
       <c r="B95">
-        <v>1.831799240642888</v>
+        <v>0.002589790133843706</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>776.3383838383838</v>
+        <v>771.1262626262626</v>
       </c>
       <c r="B96">
-        <v>1.832889175030656</v>
+        <v>0.002565005920142038</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>784.470707070707</v>
+        <v>779.2010101010101</v>
       </c>
       <c r="B97">
-        <v>1.833968389802072</v>
+        <v>0.002540713382762229</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>792.6030303030303</v>
+        <v>787.2757575757574</v>
       </c>
       <c r="B98">
-        <v>1.835037099887631</v>
+        <v>0.002516897822603894</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>800.7353535353535</v>
+        <v>795.3505050505049</v>
       </c>
       <c r="B99">
-        <v>1.836095513757688</v>
+        <v>0.002493545124844073</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>808.8676767676767</v>
+        <v>803.4252525252524</v>
       </c>
       <c r="B100">
-        <v>1.837143833679972</v>
+        <v>0.002470641730071381</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>817</v>
+        <v>811.5</v>
       </c>
       <c r="B101">
-        <v>1.838182255964352</v>
+        <v>0.002448174607119392</v>
       </c>
     </row>
   </sheetData>
@@ -2623,13 +2698,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2651,258 +2726,294 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
-        <v>11.9</v>
+        <v>62</v>
       </c>
       <c r="B2">
-        <v>1.345362404707371</v>
+        <v>12.1</v>
       </c>
       <c r="C2">
-        <v>0.151628</v>
+        <v>1.12989675044522</v>
       </c>
       <c r="D2">
-        <v>0.0243383158734444</v>
+        <v>0.113967</v>
       </c>
       <c r="E2">
-        <v>1.075546961392531</v>
+        <v>0.0111726845525644</v>
       </c>
       <c r="F2">
-        <v>-0.8192205934094156</v>
+        <v>1.08278537031645</v>
       </c>
       <c r="G2">
-        <v>-0.8512471913668236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.9432208836866045</v>
+      </c>
+      <c r="H2">
+        <v>-0.928579184308906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
-        <v>37.7</v>
+        <v>125</v>
       </c>
       <c r="B3">
-        <v>1.633333333333333</v>
+        <v>39.5</v>
       </c>
       <c r="C3">
-        <v>0.04234300000000001</v>
+        <v>1.796601730428249</v>
       </c>
       <c r="D3">
-        <v>0.002718226157707347</v>
+        <v>0.039636</v>
       </c>
       <c r="E3">
-        <v>1.576341350205793</v>
+        <v>0.002826119915675514</v>
       </c>
       <c r="F3">
-        <v>-1.373218375478392</v>
+        <v>1.59659709562646</v>
       </c>
       <c r="G3">
-        <v>-1.345009754014564</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-1.401910180260961</v>
+      </c>
+      <c r="H3">
+        <v>-1.410745692789158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
-        <v>78.8</v>
+        <v>188</v>
       </c>
       <c r="B4">
-        <v>2.731706833139716</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="C4">
-        <v>0.01997</v>
+        <v>3.572891763761611</v>
       </c>
       <c r="D4">
-        <v>0.001502090395267727</v>
+        <v>0.019578</v>
       </c>
       <c r="E4">
-        <v>1.896526217489555</v>
+        <v>0.001783419810987369</v>
       </c>
       <c r="F4">
-        <v>-1.699621935129297</v>
+        <v>1.903632516084238</v>
       </c>
       <c r="G4">
-        <v>-1.660698795510611</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-1.708231675828481</v>
+      </c>
+      <c r="H4">
+        <v>-1.698871069010518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
-        <v>125.4</v>
+        <v>251</v>
       </c>
       <c r="B5">
-        <v>1.528979325490629</v>
+        <v>137.2</v>
       </c>
       <c r="C5">
-        <v>0.01427</v>
+        <v>4.304519588628781</v>
       </c>
       <c r="D5">
-        <v>0.0005527145134093487</v>
+        <v>0.012534</v>
       </c>
       <c r="E5">
-        <v>2.098297536494698</v>
+        <v>0.0009046155721262668</v>
       </c>
       <c r="F5">
-        <v>-1.845576026885353</v>
+        <v>2.137354111370733</v>
       </c>
       <c r="G5">
-        <v>-1.859636974065049</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>-1.901910309636048</v>
+      </c>
+      <c r="H5">
+        <v>-1.918197954724794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
-        <v>204.4</v>
+        <v>314</v>
       </c>
       <c r="B6">
-        <v>4.13440846232364</v>
+        <v>203.4</v>
       </c>
       <c r="C6">
-        <v>0.008930999999999998</v>
+        <v>4.77772609791171</v>
       </c>
       <c r="D6">
-        <v>0.0004717966840823608</v>
+        <v>0.008934000000000001</v>
       </c>
       <c r="E6">
-        <v>2.310480891462675</v>
+        <v>0.000431483745026649</v>
       </c>
       <c r="F6">
-        <v>-2.049099910633613</v>
+        <v>2.308350948586726</v>
       </c>
       <c r="G6">
-        <v>-2.068840989606146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-2.04895405186418</v>
+      </c>
+      <c r="H6">
+        <v>-2.07866324560903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
-        <v>290.6</v>
+        <v>376</v>
       </c>
       <c r="B7">
-        <v>4.487513540679045</v>
+        <v>290.4</v>
       </c>
       <c r="C7">
-        <v>0.005509</v>
+        <v>4.742713709821976</v>
       </c>
       <c r="D7">
-        <v>0.000255370971986507</v>
+        <v>0.005514</v>
       </c>
       <c r="E7">
-        <v>2.463295609962003</v>
+        <v>0.0003042593922589372</v>
       </c>
       <c r="F7">
-        <v>-2.258927227626679</v>
+        <v>2.462996612028056</v>
       </c>
       <c r="G7">
-        <v>-2.219509984111707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-2.258533238230245</v>
+      </c>
+      <c r="H7">
+        <v>-2.22378441727581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
-        <v>389.3</v>
+        <v>439</v>
       </c>
       <c r="B8">
-        <v>4.887739763939974</v>
+        <v>397.9</v>
       </c>
       <c r="C8">
-        <v>0.004415000000000001</v>
+        <v>4.958606435055898</v>
       </c>
       <c r="D8">
-        <v>0.0002594791792118289</v>
+        <v>0.004329999999999999</v>
       </c>
       <c r="E8">
-        <v>2.590284403718162</v>
+        <v>0.0001732114956410868</v>
       </c>
       <c r="F8">
-        <v>-2.355069292086413</v>
+        <v>2.599773939146388</v>
       </c>
       <c r="G8">
-        <v>-2.344715684561292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-2.363512103646635</v>
+      </c>
+      <c r="H8">
+        <v>-2.352137747897287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
-        <v>518.1</v>
+        <v>502</v>
       </c>
       <c r="B9">
-        <v>6.563281699475246</v>
+        <v>515.9</v>
       </c>
       <c r="C9">
-        <v>0.003158</v>
+        <v>5.700779673771728</v>
       </c>
       <c r="D9">
-        <v>0.000145707469495104</v>
+        <v>0.003257</v>
       </c>
       <c r="E9">
-        <v>2.714413592287121</v>
+        <v>0.0001395711686241507</v>
       </c>
       <c r="F9">
-        <v>-2.500587874327724</v>
+        <v>2.712565527873308</v>
       </c>
       <c r="G9">
-        <v>-2.467101932523124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-2.487182241435127</v>
+      </c>
+      <c r="H9">
+        <v>-2.457982600872541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
-        <v>658.6</v>
+        <v>565</v>
       </c>
       <c r="B10">
-        <v>9.318082778483278</v>
+        <v>667</v>
       </c>
       <c r="C10">
-        <v>0.002616</v>
+        <v>4.695151163109069</v>
       </c>
       <c r="D10">
-        <v>0.0001107068200247843</v>
+        <v>0.002504999999999999</v>
       </c>
       <c r="E10">
-        <v>2.818621726375889</v>
+        <v>7.528095524249295E-05</v>
       </c>
       <c r="F10">
-        <v>-2.58236226034777</v>
+        <v>2.824125833916549</v>
       </c>
       <c r="G10">
-        <v>-2.569846844378747</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-2.601192269796736</v>
+      </c>
+      <c r="H10">
+        <v>-2.56267200479263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
-        <v>817</v>
+        <v>628</v>
       </c>
       <c r="B11">
-        <v>8.299933065325822</v>
+        <v>811.5</v>
       </c>
       <c r="C11">
-        <v>0.002112</v>
+        <v>8.364275886836296</v>
       </c>
       <c r="D11">
-        <v>6.451184215148237E-05</v>
+        <v>0.002171</v>
       </c>
       <c r="E11">
-        <v>2.912222056532416</v>
+        <v>6.04510821518799E-05</v>
       </c>
       <c r="F11">
-        <v>-2.675306086138225</v>
+        <v>2.909288524162251</v>
       </c>
       <c r="G11">
-        <v>-2.662132900123662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-2.66334017654558</v>
+      </c>
+      <c r="H11">
+        <v>-2.642589599089996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
+        <v>638</v>
+      </c>
+      <c r="B12">
         <v>496</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.004589999999999999</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2.891205793294678E-19</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2.695481676490198</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-2.338187314462739</v>
       </c>
-      <c r="G12">
-        <v>-2.448435846263907</v>
+      <c r="H12">
+        <v>-2.441950929022662</v>
       </c>
     </row>
   </sheetData>
@@ -2920,810 +3031,810 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="B2">
-        <v>0.1512261455788152</v>
+        <v>0.114118894657337</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>20.03232323232323</v>
+        <v>20.17474747474747</v>
       </c>
       <c r="B3">
-        <v>0.08707241536200769</v>
+        <v>0.07153840198621657</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>28.16464646464647</v>
+        <v>28.24949494949495</v>
       </c>
       <c r="B4">
-        <v>0.06067855073054387</v>
+        <v>0.05259964516128546</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>36.2969696969697</v>
+        <v>36.32424242424242</v>
       </c>
       <c r="B5">
-        <v>0.04637283173295762</v>
+        <v>0.04180625295572488</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>44.42929292929293</v>
+        <v>44.3989898989899</v>
       </c>
       <c r="B6">
-        <v>0.0374283071771774</v>
+        <v>0.03480208572938091</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>52.56161616161616</v>
+        <v>52.47373737373737</v>
       </c>
       <c r="B7">
-        <v>0.03132015220138892</v>
+        <v>0.02987537705570119</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>60.6939393939394</v>
+        <v>60.54848484848484</v>
       </c>
       <c r="B8">
-        <v>0.02689064206542731</v>
+        <v>0.02621373526820083</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>68.82626262626263</v>
+        <v>68.62323232323232</v>
       </c>
       <c r="B9">
-        <v>0.02353520488954543</v>
+        <v>0.02338103360402072</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>76.95858585858586</v>
+        <v>76.69797979797978</v>
       </c>
       <c r="B10">
-        <v>0.02090772965790534</v>
+        <v>0.02112174936903392</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>85.09090909090909</v>
+        <v>84.77272727272725</v>
       </c>
       <c r="B11">
-        <v>0.01879598053660206</v>
+        <v>0.01927604335909764</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>93.22323232323232</v>
+        <v>92.84747474747473</v>
       </c>
       <c r="B12">
-        <v>0.01706267557283618</v>
+        <v>0.01773870091217781</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>101.3555555555556</v>
+        <v>100.9222222222222</v>
       </c>
       <c r="B13">
-        <v>0.01561513681367633</v>
+        <v>0.01643757540808223</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>109.4878787878788</v>
+        <v>108.9969696969697</v>
       </c>
       <c r="B14">
-        <v>0.01438856735038244</v>
+        <v>0.01532150915408134</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>117.620202020202</v>
+        <v>117.0717171717172</v>
       </c>
       <c r="B15">
-        <v>0.01333631908322386</v>
+        <v>0.01435319723341663</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>125.7525252525253</v>
+        <v>125.1464646464646</v>
       </c>
       <c r="B16">
-        <v>0.01242396639390322</v>
+        <v>0.0135047825124472</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>133.8848484848485</v>
+        <v>133.2212121212121</v>
       </c>
       <c r="B17">
-        <v>0.0116255569178896</v>
+        <v>0.01275503402534345</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>142.0171717171717</v>
+        <v>141.2959595959596</v>
       </c>
       <c r="B18">
-        <v>0.01092116092753925</v>
+        <v>0.01208748145851442</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>150.149494949495</v>
+        <v>149.3707070707071</v>
       </c>
       <c r="B19">
-        <v>0.0102952236440969</v>
+        <v>0.01148914749613198</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>158.2818181818182</v>
+        <v>157.4454545454545</v>
       </c>
       <c r="B20">
-        <v>0.009735429716742627</v>
+        <v>0.01094966553484734</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>166.4141414141414</v>
+        <v>165.520202020202</v>
       </c>
       <c r="B21">
-        <v>0.009231903447200695</v>
+        <v>0.01046065249826879</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>174.5464646464646</v>
+        <v>173.5949494949495</v>
       </c>
       <c r="B22">
-        <v>0.008776634488218677</v>
+        <v>0.01001525453838841</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>182.6787878787879</v>
+        <v>181.6696969696969</v>
       </c>
       <c r="B23">
-        <v>0.008363058253235566</v>
+        <v>0.009607812388484292</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>190.8111111111111</v>
+        <v>189.7444444444444</v>
       </c>
       <c r="B24">
-        <v>0.007985744549041576</v>
+        <v>0.009233611095551531</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>198.9434343434343</v>
+        <v>197.8191919191919</v>
       </c>
       <c r="B25">
-        <v>0.007640163239624202</v>
+        <v>0.008888690275485224</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>207.0757575757576</v>
+        <v>205.8939393939393</v>
       </c>
       <c r="B26">
-        <v>0.00732250561017831</v>
+        <v>0.00856969845168928</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>215.2080808080808</v>
+        <v>213.9686868686868</v>
       </c>
       <c r="B27">
-        <v>0.007029546589224229</v>
+        <v>0.008273779955781664</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>223.3404040404041</v>
+        <v>222.0434343434343</v>
       </c>
       <c r="B28">
-        <v>0.006758537337583468</v>
+        <v>0.007998486190224757</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>231.4727272727273</v>
+        <v>230.1181818181818</v>
       </c>
       <c r="B29">
-        <v>0.006507120680451912</v>
+        <v>0.007741705333417221</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>239.6050505050505</v>
+        <v>238.1929292929293</v>
       </c>
       <c r="B30">
-        <v>0.006273263914788072</v>
+        <v>0.007501606158254927</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>247.7373737373737</v>
+        <v>246.2676767676767</v>
       </c>
       <c r="B31">
-        <v>0.006055204969392477</v>
+        <v>0.007276592760105602</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>255.869696969697</v>
+        <v>254.3424242424242</v>
       </c>
       <c r="B32">
-        <v>0.0058514089244955</v>
+        <v>0.007065267796277352</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>264.0020202020202</v>
+        <v>262.4171717171717</v>
       </c>
       <c r="B33">
-        <v>0.005660532640093624</v>
+        <v>0.006866402423782412</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>272.1343434343434</v>
+        <v>270.4919191919192</v>
       </c>
       <c r="B34">
-        <v>0.005481395783881224</v>
+        <v>0.006678911551119365</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>280.2666666666667</v>
+        <v>278.5666666666667</v>
       </c>
       <c r="B35">
-        <v>0.005312956948981307</v>
+        <v>0.006501833337750171</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>288.3989898989899</v>
+        <v>286.6414141414141</v>
       </c>
       <c r="B36">
-        <v>0.00515429384910049</v>
+        <v>0.006334312112962199</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>296.5313131313131</v>
+        <v>294.7161616161616</v>
       </c>
       <c r="B37">
-        <v>0.005004586802319537</v>
+        <v>0.006175584065620148</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>304.6636363636363</v>
+        <v>302.7909090909091</v>
       </c>
       <c r="B38">
-        <v>0.004863104884291152</v>
+        <v>0.006024965193333106</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>312.7959595959596</v>
+        <v>310.8656565656565</v>
       </c>
       <c r="B39">
-        <v>0.004729194261270134</v>
+        <v>0.005881841104820782</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>320.9282828282828</v>
+        <v>318.940404040404</v>
       </c>
       <c r="B40">
-        <v>0.004602268313312335</v>
+        <v>0.005745658350741072</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>329.060606060606</v>
+        <v>327.0151515151515</v>
       </c>
       <c r="B41">
-        <v>0.004481799235536794</v>
+        <v>0.005615917021766245</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>337.1929292929293</v>
+        <v>335.089898989899</v>
       </c>
       <c r="B42">
-        <v>0.004367310865969389</v>
+        <v>0.005492164402560705</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>345.3252525252525</v>
+        <v>343.1646464646465</v>
       </c>
       <c r="B43">
-        <v>0.004258372536185058</v>
+        <v>0.005373989509709177</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>353.4575757575757</v>
+        <v>351.2393939393939</v>
       </c>
       <c r="B44">
-        <v>0.004154593778728686</v>
+        <v>0.005261018372958773</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>361.589898989899</v>
+        <v>359.3141414141414</v>
       </c>
       <c r="B45">
-        <v>0.004055619755368546</v>
+        <v>0.005152909944174143</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>369.7222222222222</v>
+        <v>367.3888888888889</v>
       </c>
       <c r="B46">
-        <v>0.003961127294320894</v>
+        <v>0.005049352538531013</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>377.8545454545454</v>
+        <v>375.4636363636363</v>
       </c>
       <c r="B47">
-        <v>0.003870821443975885</v>
+        <v>0.004950060728737752</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>385.9868686868687</v>
+        <v>383.5383838383838</v>
       </c>
       <c r="B48">
-        <v>0.003784432466347486</v>
+        <v>0.004854772626283929</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>394.1191919191919</v>
+        <v>391.6131313131313</v>
       </c>
       <c r="B49">
-        <v>0.003701713206230728</v>
+        <v>0.004763247494494139</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>402.2515151515152</v>
+        <v>399.6878787878787</v>
       </c>
       <c r="B50">
-        <v>0.003622436782474554</v>
+        <v>0.004675263647001852</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>410.3838383838383</v>
+        <v>407.7626262626262</v>
       </c>
       <c r="B51">
-        <v>0.003546394556332881</v>
+        <v>0.004590616592533375</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>418.5161616161616</v>
+        <v>415.8373737373737</v>
       </c>
       <c r="B52">
-        <v>0.003473394338905845</v>
+        <v>0.004509117392907075</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>426.6484848484848</v>
+        <v>423.9121212121212</v>
       </c>
       <c r="B53">
-        <v>0.003403258805515847</v>
+        <v>0.004430591206145848</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>434.7808080808081</v>
+        <v>431.9868686868687</v>
       </c>
       <c r="B54">
-        <v>0.003335824089707885</v>
+        <v>0.004354875990761184</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>442.9131313131313</v>
+        <v>440.0616161616161</v>
       </c>
       <c r="B55">
-        <v>0.003270938533603003</v>
+        <v>0.004281821350746441</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>451.0454545454545</v>
+        <v>448.1363636363636</v>
       </c>
       <c r="B56">
-        <v>0.003208461574713612</v>
+        <v>0.004211287503737038</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>459.1777777777777</v>
+        <v>456.2111111111111</v>
       </c>
       <c r="B57">
-        <v>0.003148262752167272</v>
+        <v>0.00414314435725427</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>467.310101010101</v>
+        <v>464.2858585858585</v>
       </c>
       <c r="B58">
-        <v>0.00309022081767621</v>
+        <v>0.00407727068002698</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>475.4424242424242</v>
+        <v>472.360606060606</v>
       </c>
       <c r="B59">
-        <v>0.003034222938610254</v>
+        <v>0.004013553357146009</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>483.5747474747474</v>
+        <v>480.4353535353535</v>
       </c>
       <c r="B60">
-        <v>0.002980163982243562</v>
+        <v>0.003951886719303136</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>491.7070707070707</v>
+        <v>488.510101010101</v>
       </c>
       <c r="B61">
-        <v>0.002927945871701747</v>
+        <v>0.003892171937642248</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>499.8393939393939</v>
+        <v>496.5848484848485</v>
       </c>
       <c r="B62">
-        <v>0.002877477005377666</v>
+        <v>0.003834316476841483</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>507.9717171717172</v>
+        <v>504.6595959595959</v>
       </c>
       <c r="B63">
-        <v>0.002828671732645802</v>
+        <v>0.003778233599980349</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>516.1040404040403</v>
+        <v>512.7343434343434</v>
       </c>
       <c r="B64">
-        <v>0.002781449879615335</v>
+        <v>0.003723841919549707</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>524.2363636363636</v>
+        <v>520.8090909090909</v>
       </c>
       <c r="B65">
-        <v>0.002735736319444319</v>
+        <v>0.003671064989655256</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>532.3686868686868</v>
+        <v>528.8838383838383</v>
       </c>
       <c r="B66">
-        <v>0.002691460582411479</v>
+        <v>0.003619830935063521</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>540.50101010101</v>
+        <v>536.9585858585858</v>
       </c>
       <c r="B67">
-        <v>0.002648556501524354</v>
+        <v>0.003570072113257467</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>548.6333333333333</v>
+        <v>545.0333333333333</v>
       </c>
       <c r="B68">
-        <v>0.002606961889946678</v>
+        <v>0.003521724806118537</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>556.7656565656565</v>
+        <v>553.1080808080808</v>
       </c>
       <c r="B69">
-        <v>0.002566618246965211</v>
+        <v>0.003474728938243024</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>564.8979797979798</v>
+        <v>561.1828282828283</v>
       </c>
       <c r="B70">
-        <v>0.002527470489596689</v>
+        <v>0.003429027819241569</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>573.030303030303</v>
+        <v>569.2575757575758</v>
       </c>
       <c r="B71">
-        <v>0.002489466707267035</v>
+        <v>0.003384567907668399</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>581.1626262626262</v>
+        <v>577.3323232323232</v>
       </c>
       <c r="B72">
-        <v>0.002452557937284456</v>
+        <v>0.003341298594487549</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>589.2949494949495</v>
+        <v>585.4070707070706</v>
       </c>
       <c r="B73">
-        <v>0.002416697959081371</v>
+        <v>0.00329917200421184</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>597.4272727272727</v>
+        <v>593.4818181818181</v>
       </c>
       <c r="B74">
-        <v>0.002381843105422225</v>
+        <v>0.003258142812051314</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>605.559595959596</v>
+        <v>601.5565656565656</v>
       </c>
       <c r="B75">
-        <v>0.002347952088969245</v>
+        <v>0.003218168075584502</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>613.6919191919192</v>
+        <v>609.631313131313</v>
       </c>
       <c r="B76">
-        <v>0.00231498584276996</v>
+        <v>0.003179207079621927</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>621.8242424242424</v>
+        <v>617.7060606060605</v>
       </c>
       <c r="B77">
-        <v>0.002282907373381544</v>
+        <v>0.003141221193068869</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>629.9565656565657</v>
+        <v>625.780808080808</v>
       </c>
       <c r="B78">
-        <v>0.00225168162548074</v>
+        <v>0.003104173736716384</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>638.0888888888888</v>
+        <v>633.8555555555555</v>
       </c>
       <c r="B79">
-        <v>0.002221275356926324</v>
+        <v>0.003068029860997553</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>646.221212121212</v>
+        <v>641.930303030303</v>
       </c>
       <c r="B80">
-        <v>0.002191657023345785</v>
+        <v>0.003032756432841862</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>654.3535353535353</v>
+        <v>650.0050505050505</v>
       </c>
       <c r="B81">
-        <v>0.002162796671410889</v>
+        <v>0.002998321930845916</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>662.4858585858585</v>
+        <v>658.0797979797979</v>
       </c>
       <c r="B82">
-        <v>0.002134665840049385</v>
+        <v>0.002964696348054624</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>670.6181818181818</v>
+        <v>666.1545454545454</v>
       </c>
       <c r="B83">
-        <v>0.002107237468913657</v>
+        <v>0.002931851101714743</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>678.750505050505</v>
+        <v>674.2292929292929</v>
       </c>
       <c r="B84">
-        <v>0.002080485813492712</v>
+        <v>0.002899758949423204</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>686.8828282828282</v>
+        <v>682.3040404040404</v>
       </c>
       <c r="B85">
-        <v>0.002054386366312409</v>
+        <v>0.002868393911146696</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>695.0151515151515</v>
+        <v>690.3787878787878</v>
       </c>
       <c r="B86">
-        <v>0.002028915783721162</v>
+        <v>0.002837731196637552</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>703.1474747474747</v>
+        <v>698.4535353535352</v>
       </c>
       <c r="B87">
-        <v>0.00200405181780522</v>
+        <v>0.002807747137814382</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>711.279797979798</v>
+        <v>706.5282828282827</v>
       </c>
       <c r="B88">
-        <v>0.001979773253019607</v>
+        <v>0.002778419125714995</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>719.4121212121212</v>
+        <v>714.6030303030302</v>
       </c>
       <c r="B89">
-        <v>0.001956059847158515</v>
+        <v>0.002749725551664224</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>727.5444444444444</v>
+        <v>722.6777777777777</v>
       </c>
       <c r="B90">
-        <v>0.001932892276322811</v>
+        <v>0.002721645752330935</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>735.6767676767677</v>
+        <v>730.7525252525252</v>
       </c>
       <c r="B91">
-        <v>0.001910252083572831</v>
+        <v>0.00269415995837694</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>743.8090909090909</v>
+        <v>738.8272727272727</v>
       </c>
       <c r="B92">
-        <v>0.001888121630982088</v>
+        <v>0.002667249246426297</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>751.9414141414142</v>
+        <v>746.9020202020201</v>
       </c>
       <c r="B93">
-        <v>0.001866484054832298</v>
+        <v>0.00264089549410671</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>760.0737373737373</v>
+        <v>754.9767676767676</v>
       </c>
       <c r="B94">
-        <v>0.001845323223712523</v>
+        <v>0.002615081337935753</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>768.2060606060605</v>
+        <v>763.0515151515151</v>
       </c>
       <c r="B95">
-        <v>0.001824623699305458</v>
+        <v>0.002589790133843706</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>776.3383838383838</v>
+        <v>771.1262626262626</v>
       </c>
       <c r="B96">
-        <v>0.001804370699662181</v>
+        <v>0.002565005920142038</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>784.470707070707</v>
+        <v>779.2010101010101</v>
       </c>
       <c r="B97">
-        <v>0.00178455006478332</v>
+        <v>0.002540713382762229</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>792.6030303030303</v>
+        <v>787.2757575757574</v>
       </c>
       <c r="B98">
-        <v>0.0017651482243396</v>
+        <v>0.002516897822603894</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>800.7353535353535</v>
+        <v>795.3505050505049</v>
       </c>
       <c r="B99">
-        <v>0.001746152167378434</v>
+        <v>0.002493545124844073</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>808.8676767676767</v>
+        <v>803.4252525252524</v>
       </c>
       <c r="B100">
-        <v>0.00172754941387562</v>
+        <v>0.002470641730071381</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>817</v>
+        <v>811.5</v>
       </c>
       <c r="B101">
-        <v>0.001709327988002532</v>
+        <v>0.002448174607119392</v>
       </c>
     </row>
   </sheetData>
